--- a/measures/IRAP procedural parameters, stimuli, and publication status.xlsx
+++ b/measures/IRAP procedural parameters, stimuli, and publication status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/git/irap-reliability-meta-analysis/measures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5209CAD3-5552-1448-A692-785752C8FD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA977C2-154A-3647-9075-96F210911559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="28120" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="740" windowWidth="28120" windowHeight="18380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="340">
   <si>
     <t>Religion</t>
   </si>
@@ -415,9 +415,6 @@
   </si>
   <si>
     <t>[disgusting images: rotten meat, a large maggot, bloody hand, diseased mouth cavity, toilet with feces, burned face]</t>
-  </si>
-  <si>
-    <t>Images taken from the International Affective Picture System and found online, see Hughes, Hussey, Corrigan, Jolie, Murphy &amp; Barnes-Holmes (2016)</t>
   </si>
   <si>
     <t xml:space="preserve">During the next part of the experiment PLEASE RESPOND AS IF GOOD WORDS ARE GOOD AND BAD WORDS ARE BAD. </t>
@@ -1396,9 +1393,6 @@
     <t>Convenience sample of undergraduate students at a Belgian university. Participants were paid either €5or course credit.</t>
   </si>
   <si>
-    <t>Note that stimuli were presented in Dutch. English translations are presented here.</t>
-  </si>
-  <si>
     <t>English translation:
 bad
 unpleasant
@@ -1520,6 +1514,27 @@
   </si>
   <si>
     <t>Gender stereotypes (4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenience sample of undergraduate students at an Irish university who identified as both male and either gay or straight. No compensation was offered. </t>
+  </si>
+  <si>
+    <t>Hughes, Hussey, Corrigan, Jolie, Murphy, &amp; Barnes-Holmes. (2016) Faking revisited: Exerting strategic control over performance on the Implicit Relational Assessment Procedure: IRAP faking.</t>
+  </si>
+  <si>
+    <t>See "image stimuli" folder for images.  Note that only the baseline IRAP are included (i.e., prior to faking instructions).</t>
+  </si>
+  <si>
+    <t>Images taken from the International Affective Picture System (IAPS: Lang, Bradley, &amp; Cuthbert, 1997), which is proprietary and thereore cannot be distriuted here. Male picture numbers: 4460, 4500, 4534, 4550, 4561; female picture numbers: 4141, 4142, 4210, 4240, 4235.
+Note that only the baseline IRAP are included (i.e., prior to faking instructions).</t>
+  </si>
+  <si>
+    <t>Note that stimuli were presented in Dutch. English translations are presented here.
+Note that only the baseline IRAP are included (i.e., prior to faking instructions).</t>
+  </si>
+  <si>
+    <t>Images taken from the International Affective Picture System and found online, see Hughes, Hussey, Corrigan, Jolie, Murphy &amp; Barnes-Holmes (2016). 
+Note that only the baseline IRAP are included (i.e., prior to faking instructions).</t>
   </si>
 </sst>
 </file>
@@ -2308,9 +2323,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2340,10 +2355,10 @@
   <sheetData>
     <row r="1" spans="1:23" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>18</v>
@@ -2352,16 +2367,16 @@
         <v>19</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>55</v>
@@ -2373,13 +2388,13 @@
         <v>21</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="N1" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>20</v>
@@ -2391,19 +2406,19 @@
         <v>35</v>
       </c>
       <c r="R1" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="U1" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>39</v>
@@ -2414,7 +2429,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -2429,16 +2444,16 @@
         <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="I2" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>15</v>
@@ -2450,7 +2465,7 @@
         <v>3</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O2" s="16" t="s">
         <v>16</v>
@@ -2462,22 +2477,22 @@
         <v>2000</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="S2" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="T2" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="U2" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -2485,7 +2500,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>49</v>
@@ -2500,16 +2515,16 @@
         <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="I3" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>15</v>
@@ -2521,7 +2536,7 @@
         <v>3</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>17</v>
@@ -2533,22 +2548,22 @@
         <v>2000</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>165</v>
       </c>
       <c r="T3" s="8">
         <v>2016</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -2556,7 +2571,7 @@
         <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>63</v>
@@ -2565,22 +2580,22 @@
         <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="I4" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>59</v>
@@ -2592,7 +2607,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O4" s="15" t="s">
         <v>17</v>
@@ -2604,22 +2619,22 @@
         <v>2000</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -2627,7 +2642,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>64</v>
@@ -2636,22 +2651,22 @@
         <v>65</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="G5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="I5" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>59</v>
@@ -2663,7 +2678,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O5" s="15" t="s">
         <v>17</v>
@@ -2675,22 +2690,22 @@
         <v>2000</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -2698,7 +2713,7 @@
         <v>102</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>57</v>
@@ -2707,22 +2722,22 @@
         <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="I6" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>59</v>
@@ -2734,7 +2749,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>17</v>
@@ -2746,22 +2761,22 @@
         <v>2000</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="119" x14ac:dyDescent="0.2">
@@ -2769,7 +2784,7 @@
         <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>60</v>
@@ -2778,22 +2793,22 @@
         <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="G7" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="I7" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>59</v>
@@ -2805,7 +2820,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O7" s="15" t="s">
         <v>17</v>
@@ -2817,22 +2832,22 @@
         <v>2000</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -2840,7 +2855,7 @@
         <v>104</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -2849,22 +2864,22 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="I8" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>59</v>
@@ -2876,7 +2891,7 @@
         <v>3</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>17</v>
@@ -2888,22 +2903,22 @@
         <v>2000</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T8" s="8">
         <v>2013</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -2911,7 +2926,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
@@ -2926,16 +2941,16 @@
         <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I9" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>59</v>
@@ -2947,7 +2962,7 @@
         <v>3</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>17</v>
@@ -2959,22 +2974,22 @@
         <v>2000</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T9" s="8">
         <v>2013</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -2982,7 +2997,7 @@
         <v>106</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -2997,16 +3012,16 @@
         <v>34</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="I10" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>59</v>
@@ -3018,7 +3033,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O10" s="16" t="s">
         <v>17</v>
@@ -3030,54 +3045,54 @@
         <v>2000</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T10" s="8">
         <v>2013</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="I11" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J11" s="18" t="s">
         <v>184</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>185</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>59</v>
@@ -3089,7 +3104,7 @@
         <v>3</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O11" s="16" t="s">
         <v>17</v>
@@ -3101,54 +3116,54 @@
         <v>2000</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T11" s="8">
         <v>2013</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="187" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="G12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="I12" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>59</v>
@@ -3160,7 +3175,7 @@
         <v>3</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O12" s="16" t="s">
         <v>17</v>
@@ -3169,33 +3184,33 @@
         <v>80</v>
       </c>
       <c r="Q12" s="17">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T12" s="8">
         <v>2014</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="272" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>70</v>
@@ -3204,10 +3219,10 @@
         <v>71</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>129</v>
@@ -3216,10 +3231,10 @@
         <v>128</v>
       </c>
       <c r="I13" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>59</v>
@@ -3231,7 +3246,7 @@
         <v>3</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O13" s="16" t="s">
         <v>17</v>
@@ -3243,22 +3258,22 @@
         <v>2000</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="T13" s="8">
         <v>2013</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>130</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -3266,7 +3281,7 @@
         <v>120</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -3275,22 +3290,22 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="G14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="I14" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>15</v>
@@ -3302,7 +3317,7 @@
         <v>3</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O14" s="16" t="s">
         <v>16</v>
@@ -3314,30 +3329,30 @@
         <v>2000</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T14" s="8">
         <v>2013</v>
       </c>
       <c r="U14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="V14" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="V14" s="14" t="s">
-        <v>173</v>
-      </c>
       <c r="W14" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>72</v>
@@ -3346,22 +3361,22 @@
         <v>73</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>200</v>
-      </c>
       <c r="I15" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K15" s="21" t="s">
         <v>15</v>
@@ -3373,7 +3388,7 @@
         <v>3</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O15" s="16" t="s">
         <v>16</v>
@@ -3385,30 +3400,30 @@
         <v>2000</v>
       </c>
       <c r="R15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="S15" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="S15" s="12" t="s">
+      <c r="T15" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T15" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="U15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="V15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="W15" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>51</v>
@@ -3423,16 +3438,16 @@
         <v>44</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="I16" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K16" s="16" t="s">
         <v>15</v>
@@ -3444,7 +3459,7 @@
         <v>3</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O16" s="16" t="s">
         <v>16</v>
@@ -3456,54 +3471,54 @@
         <v>2000</v>
       </c>
       <c r="R16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="S16" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>165</v>
       </c>
       <c r="T16" s="8">
         <v>2016</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="I17" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K17" s="21" t="s">
         <v>59</v>
@@ -3515,7 +3530,7 @@
         <v>3</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O17" s="21" t="s">
         <v>17</v>
@@ -3527,54 +3542,54 @@
         <v>2000</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="I18" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>59</v>
@@ -3586,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O18" s="16" t="s">
         <v>17</v>
@@ -3598,22 +3613,22 @@
         <v>2000</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T18" s="8">
         <v>2015</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -3621,7 +3636,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -3636,16 +3651,16 @@
         <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="I19" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>15</v>
@@ -3657,7 +3672,7 @@
         <v>3</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O19" s="16" t="s">
         <v>16</v>
@@ -3669,19 +3684,19 @@
         <v>2000</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T19" s="8">
         <v>2013</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>40</v>
@@ -3689,34 +3704,34 @@
     </row>
     <row r="20" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="G20" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="I20" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>59</v>
@@ -3728,7 +3743,7 @@
         <v>3</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O20" s="16" t="s">
         <v>17</v>
@@ -3740,22 +3755,22 @@
         <v>2000</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T20" s="8">
         <v>2014</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -3763,7 +3778,7 @@
         <v>107</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>78</v>
@@ -3778,16 +3793,16 @@
         <v>81</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="I21" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>15</v>
@@ -3799,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O21" s="15" t="s">
         <v>16</v>
@@ -3811,22 +3826,22 @@
         <v>2500</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T21" s="8">
         <v>2014</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -3834,7 +3849,7 @@
         <v>108</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>84</v>
@@ -3849,16 +3864,16 @@
         <v>83</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="I22" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>15</v>
@@ -3870,7 +3885,7 @@
         <v>3</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O22" s="15" t="s">
         <v>16</v>
@@ -3882,22 +3897,22 @@
         <v>2500</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T22" s="8">
         <v>2014</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -3905,7 +3920,7 @@
         <v>109</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>86</v>
@@ -3920,16 +3935,16 @@
         <v>89</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="I23" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>15</v>
@@ -3941,7 +3956,7 @@
         <v>3</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O23" s="15" t="s">
         <v>16</v>
@@ -3953,22 +3968,22 @@
         <v>2500</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T23" s="8">
         <v>2014</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -3976,7 +3991,7 @@
         <v>110</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>96</v>
@@ -3991,16 +4006,16 @@
         <v>91</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="I24" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K24" s="16" t="s">
         <v>15</v>
@@ -4012,7 +4027,7 @@
         <v>3</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O24" s="15" t="s">
         <v>16</v>
@@ -4024,22 +4039,22 @@
         <v>2500</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T24" s="8">
         <v>2014</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -4047,7 +4062,7 @@
         <v>111</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>94</v>
@@ -4062,16 +4077,16 @@
         <v>93</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="I25" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K25" s="16" t="s">
         <v>15</v>
@@ -4083,7 +4098,7 @@
         <v>3</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O25" s="15" t="s">
         <v>16</v>
@@ -4095,22 +4110,22 @@
         <v>2500</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T25" s="8">
         <v>2014</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -4118,7 +4133,7 @@
         <v>112</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
@@ -4133,16 +4148,16 @@
         <v>26</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="I26" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J26" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>144</v>
       </c>
       <c r="K26" s="16" t="s">
         <v>15</v>
@@ -4154,7 +4169,7 @@
         <v>3</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O26" s="16" t="s">
         <v>16</v>
@@ -4166,22 +4181,22 @@
         <v>2000</v>
       </c>
       <c r="R26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="S26" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="S26" s="12" t="s">
+      <c r="T26" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T26" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="U26" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="238" x14ac:dyDescent="0.2">
@@ -4189,7 +4204,7 @@
         <v>113</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
@@ -4204,16 +4219,16 @@
         <v>37</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="I27" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J27" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>59</v>
@@ -4225,7 +4240,7 @@
         <v>3</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O27" s="16" t="s">
         <v>17</v>
@@ -4237,22 +4252,22 @@
         <v>2000</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T27" s="8">
         <v>2013</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>40</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -4260,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>1</v>
@@ -4275,16 +4290,16 @@
         <v>24</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="I28" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J28" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K28" s="16" t="s">
         <v>15</v>
@@ -4296,7 +4311,7 @@
         <v>3</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O28" s="16" t="s">
         <v>16</v>
@@ -4308,22 +4323,22 @@
         <v>2000</v>
       </c>
       <c r="R28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="S28" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="S28" s="12" t="s">
+      <c r="T28" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T28" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="U28" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -4331,7 +4346,7 @@
         <v>48</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>53</v>
@@ -4346,16 +4361,16 @@
         <v>46</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="I29" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J29" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K29" s="16" t="s">
         <v>15</v>
@@ -4367,7 +4382,7 @@
         <v>3</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O29" s="16" t="s">
         <v>17</v>
@@ -4379,30 +4394,30 @@
         <v>2000</v>
       </c>
       <c r="R29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="S29" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="S29" s="12" t="s">
-        <v>165</v>
       </c>
       <c r="T29" s="8">
         <v>2016</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="187" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>66</v>
@@ -4417,16 +4432,16 @@
         <v>69</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="I30" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J30" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K30" s="16" t="s">
         <v>15</v>
@@ -4438,7 +4453,7 @@
         <v>3</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O30" s="16" t="s">
         <v>17</v>
@@ -4450,30 +4465,30 @@
         <v>2000</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>168</v>
+        <v>334</v>
       </c>
       <c r="T30" s="8">
         <v>2013</v>
       </c>
       <c r="U30" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="V30" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="V30" s="11" t="s">
-        <v>287</v>
-      </c>
       <c r="W30" s="1" t="s">
-        <v>125</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>66</v>
@@ -4488,16 +4503,16 @@
         <v>69</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="I31" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J31" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K31" s="16" t="s">
         <v>15</v>
@@ -4509,7 +4524,7 @@
         <v>3</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O31" s="16" t="s">
         <v>17</v>
@@ -4521,19 +4536,19 @@
         <v>2000</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S31" s="11" t="s">
-        <v>168</v>
+        <v>334</v>
       </c>
       <c r="T31" s="8">
         <v>2012</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V31" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="W31" s="1" t="s">
         <v>125</v>
@@ -4544,31 +4559,31 @@
         <v>114</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="E32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I32" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I32" s="23" t="s">
+      <c r="J32" s="23" t="s">
         <v>143</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>144</v>
       </c>
       <c r="K32" s="16" t="s">
         <v>15</v>
@@ -4580,7 +4595,7 @@
         <v>3</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O32" s="16" t="s">
         <v>16</v>
@@ -4592,54 +4607,54 @@
         <v>2000</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S32" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W32" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="E33" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I33" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I33" s="23" t="s">
+      <c r="J33" s="23" t="s">
         <v>143</v>
-      </c>
-      <c r="J33" s="23" t="s">
-        <v>144</v>
       </c>
       <c r="K33" s="16" t="s">
         <v>15</v>
@@ -4651,7 +4666,7 @@
         <v>3</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O33" s="16" t="s">
         <v>16</v>
@@ -4663,22 +4678,22 @@
         <v>2000</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T33" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W33" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -4686,31 +4701,31 @@
         <v>115</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="E34" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G34" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="I34" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J34" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K34" s="16" t="s">
         <v>15</v>
@@ -4722,7 +4737,7 @@
         <v>3</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O34" s="16" t="s">
         <v>16</v>
@@ -4734,22 +4749,22 @@
         <v>2000</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T34" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W34" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -4757,31 +4772,31 @@
         <v>116</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="E35" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G35" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="I35" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J35" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K35" s="16" t="s">
         <v>15</v>
@@ -4793,7 +4808,7 @@
         <v>3</v>
       </c>
       <c r="N35" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O35" s="16" t="s">
         <v>16</v>
@@ -4805,22 +4820,22 @@
         <v>2000</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T35" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V35" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -4828,31 +4843,31 @@
         <v>117</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="E36" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G36" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="I36" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J36" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K36" s="16" t="s">
         <v>15</v>
@@ -4864,7 +4879,7 @@
         <v>3</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O36" s="15" t="s">
         <v>16</v>
@@ -4876,22 +4891,22 @@
         <v>2000</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S36" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T36" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -4899,31 +4914,31 @@
         <v>118</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="E37" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G37" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="I37" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J37" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K37" s="16" t="s">
         <v>15</v>
@@ -4935,7 +4950,7 @@
         <v>3</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O37" s="15" t="s">
         <v>16</v>
@@ -4947,22 +4962,22 @@
         <v>2000</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S37" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V37" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W37" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -4970,31 +4985,31 @@
         <v>119</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="E38" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G38" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="I38" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J38" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J38" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K38" s="16" t="s">
         <v>15</v>
@@ -5006,7 +5021,7 @@
         <v>3</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O38" s="15" t="s">
         <v>16</v>
@@ -5018,22 +5033,22 @@
         <v>2000</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T38" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V38" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:23" s="11" customFormat="1" ht="136" x14ac:dyDescent="0.2">
@@ -5041,7 +5056,7 @@
         <v>121</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>74</v>
@@ -5056,16 +5071,16 @@
         <v>77</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="I39" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J39" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K39" s="16" t="s">
         <v>15</v>
@@ -5077,7 +5092,7 @@
         <v>3</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O39" s="16" t="s">
         <v>17</v>
@@ -5089,19 +5104,19 @@
         <v>2000</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S39" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U39" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W39" s="1" t="s">
         <v>124</v>
@@ -5112,7 +5127,7 @@
         <v>122</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>74</v>
@@ -5127,16 +5142,16 @@
         <v>77</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I40" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J40" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J40" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K40" s="16" t="s">
         <v>15</v>
@@ -5148,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O40" s="16" t="s">
         <v>17</v>
@@ -5160,19 +5175,19 @@
         <v>2000</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S40" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T40" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W40" s="1" t="s">
         <v>124</v>
@@ -5183,7 +5198,7 @@
         <v>123</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>74</v>
@@ -5198,16 +5213,16 @@
         <v>77</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I41" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J41" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J41" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K41" s="16" t="s">
         <v>15</v>
@@ -5219,7 +5234,7 @@
         <v>3</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O41" s="16" t="s">
         <v>17</v>
@@ -5231,19 +5246,19 @@
         <v>2000</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S41" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V41" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W41" s="1" t="s">
         <v>124</v>
@@ -5254,25 +5269,25 @@
         <v>98</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I42" s="15" t="s">
         <v>126</v>
@@ -5290,7 +5305,7 @@
         <v>3</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O42" s="15" t="s">
         <v>17</v>
@@ -5302,22 +5317,22 @@
         <v>2000</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S42" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="T42" s="8">
         <v>2014</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V42" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/measures/IRAP procedural parameters, stimuli, and publication status.xlsx
+++ b/measures/IRAP procedural parameters, stimuli, and publication status.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/git/irap-reliability-meta-analysis/measures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA977C2-154A-3647-9075-96F210911559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A9E742-C872-724C-AA7A-A55935142885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="740" windowWidth="28120" windowHeight="18380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="740" windowWidth="28000" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="371">
   <si>
     <t>Religion</t>
   </si>
@@ -108,12 +118,6 @@
     <t>black people</t>
   </si>
   <si>
-    <t>Image of Lincoln</t>
-  </si>
-  <si>
-    <t>Image of Hitler</t>
-  </si>
-  <si>
     <t>Skinny</t>
   </si>
   <si>
@@ -145,9 +149,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>See "image stimuli" folder for images</t>
   </si>
   <si>
     <t>Hillary Clinton</t>
@@ -1085,14 +1086,6 @@
 healthy</t>
   </si>
   <si>
-    <t>bad
-ill
-azy
-sloppy
-disgusting
-ugly</t>
-  </si>
-  <si>
     <t>IRAP assessing life-death self-other relating</t>
   </si>
   <si>
@@ -1203,9 +1196,6 @@
     <t>IRAP assessing evaluations of skinny vs fat</t>
   </si>
   <si>
-    <t>IRAP assessing evaluaitons of a named personal friend vs a named personal enemy, using personalised stimuli.</t>
-  </si>
-  <si>
     <t>IRAP assessing gender personality stereotypes</t>
   </si>
   <si>
@@ -1379,15 +1369,6 @@
   </si>
   <si>
     <t>2013-2017</t>
-  </si>
-  <si>
-    <t>2015-2016</t>
-  </si>
-  <si>
-    <t>2015-2017</t>
-  </si>
-  <si>
-    <t>2015-2018</t>
   </si>
   <si>
     <t>Convenience sample of undergraduate students at a Belgian university. Participants were paid either €5or course credit.</t>
@@ -1535,6 +1516,218 @@
   <si>
     <t>Images taken from the International Affective Picture System and found online, see Hughes, Hussey, Corrigan, Jolie, Murphy &amp; Barnes-Holmes (2016). 
 Note that only the baseline IRAP are included (i.e., prior to faking instructions).</t>
+  </si>
+  <si>
+    <t>bad
+ill
+lazy
+sloppy
+disgusting
+ugly</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Abraham Lincoln
+[image of Lincoln]</t>
+  </si>
+  <si>
+    <t>Adolf Hitler
+[image of Hitler]</t>
+  </si>
+  <si>
+    <t>Conditions utilized either names or images; conditions using images have not been published. See "image stimuli" folder for images</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>is not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is </t>
+  </si>
+  <si>
+    <t>IRAP assessing evaluations of a named personal friend vs a named personal enemy, using personalised stimuli.</t>
+  </si>
+  <si>
+    <t>English translation: 
+Bad professor
+Original Portugese:
+Mau Professor</t>
+  </si>
+  <si>
+    <t>English translation: 
+Good professor
+Original Portugese:
+Bom Professor</t>
+  </si>
+  <si>
+    <t>Professor competence</t>
+  </si>
+  <si>
+    <t>English translation: 
+Respond as if good professors have positive characteristics and bad professors have negative characteristics. Try to avoid the red X.
+Original Portugese:
+Responda como se Bom Professor tivesse caracterÌsticas positivas e Mau Professor tivesse caracterÌsticas negativas. Tente evitar o X vermelho.</t>
+  </si>
+  <si>
+    <t>English translation: 
+Respond as if bad professors have positive characteristics and good professors have negative characteristics. Try to avoid the red X.
+Original Portugese:
+Responda como se Mau Professor tivesse caracterÌsticas positivas e Bom Professor tivesse caracterÌsticas negativas. Tente evitar o X vermelho.</t>
+  </si>
+  <si>
+    <t>English translation: 
+Inaccessible
+Ineffective Communicator
+Sad
+Unaware of Content
+Unprepared
+Accommodated
+Original Portugese:
+InacessÌvel
+Comunicador Ineficaz
+Desanimado
+Desconhece o Conte˙do
+Despreparado
+Acomodado</t>
+  </si>
+  <si>
+    <t>English translation: 
+Accessible
+Effective Communicator
+enthusiastic
+Master the Content
+Prepared
+Search to improve yourself
+Original Portugese:
+AcessÌvel
+Comunicador Eficaz
+Entusiasmado
+Domina o Conte˙do
+Preparado
+Busca AperfeiÁoar-se</t>
+  </si>
+  <si>
+    <t>Convenience sample of undergraduate students at a Brazillian university. No remuneration was offered.</t>
+  </si>
+  <si>
+    <t>Henklain, Marcelo H. O.; Haydu, Verônica Bender; Carmo, João S.; Muniz, Monalisa; Perez, William F. (2019) Expanding the evidence of content validity for the Teacher Behavior Checklist using the IRAP: TBC’s content validity using the IRAP. The Psychological Record. 10.1007/s40732-019-00334-9</t>
+  </si>
+  <si>
+    <t>Note that stimuli were presented in Portugese. English translations are presented here.</t>
+  </si>
+  <si>
+    <t>IRAP assessing traits of good and bad professors</t>
+  </si>
+  <si>
+    <t>Self-competence (want to be)</t>
+  </si>
+  <si>
+    <t>Self-competence (am)</t>
+  </si>
+  <si>
+    <t>IRAP assessing perceived self competence (I am)</t>
+  </si>
+  <si>
+    <t>IRAP assessing desired self competence (I want to be)</t>
+  </si>
+  <si>
+    <t>van der Kaap-Deeder, Jolene; De Houwer, Jan; Hughes, Sean; Spruyt, Adriaan; Vansteenkiste, Maarten (2018) The development and validation of an implicit measure of competence need satisfaction. Motivation and Emotion. 10.1007/s11031-018-9685-3</t>
+  </si>
+  <si>
+    <t>Similarities to IRAP employed by Remue et al. (2013)</t>
+  </si>
+  <si>
+    <t>Note that stimuli were presented in Dutch. English translations are presented here.</t>
+  </si>
+  <si>
+    <t>English translation:
+Please respond as if I am competent and I am not incompetent
+Original Dutch:
+Gelieve te antwoorden ALSOF IK BEN competent en IK BEN NIET incompetent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English translation:
+Please respond as if I am incompetent and I am not competent
+Original Dutch:
+Gelieve te antwoorden ALSOF IK BEN incompetent en IK BEN NIET competent </t>
+  </si>
+  <si>
+    <t>English translation:
+Failed
+Incompetent
+Failed
+Ignorant
+Incompetent
+Dom
+Original Dutch:
+Mislukt
+Onbekwaam
+Gefaald
+Onkundig
+Incompetent
+Dom</t>
+  </si>
+  <si>
+    <t>English translation:
+Skilled
+Successful
+Capable
+Skilled
+Competent
+Skilled
+Original Dutch:
+Bekwaam
+Succesvol
+Capabel
+Kundig
+Competent
+Vaardig</t>
+  </si>
+  <si>
+    <t>English translation:
+I am
+Original Dutch:
+Ik ben</t>
+  </si>
+  <si>
+    <t>English translation:
+I am not
+Original Dutch:
+Ik ben niet</t>
+  </si>
+  <si>
+    <t>English translation:
+I desire
+Original Dutch:
+Ik verlang</t>
+  </si>
+  <si>
+    <t>English translation:
+I don't desire
+Original Dutch:
+Ik verlang niet</t>
+  </si>
+  <si>
+    <t>English translation:
+Please respond as if I desire to be competent and I do not desire to be incompetent
+Original Dutch:
+Gelieve te antwoorden ALSOF IK VERLANG competent te zijn en IK VERLANG NIET incompetent te zijn</t>
+  </si>
+  <si>
+    <t>English translation:
+Please respond as if I desire to be incompetent and I do not desire to be competent
+Original Dutch:
+Gelieve te antwoorden ALSOF IK VERLANG incompetent te zijn en IK VERLANG NIET competent te zijn</t>
+  </si>
+  <si>
+    <t>A sample of convenience from the participant pool (both students and non-students). Participants were paid €10.</t>
   </si>
 </sst>
 </file>
@@ -2321,11 +2514,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W42"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2355,10 +2548,10 @@
   <sheetData>
     <row r="1" spans="1:23" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>18</v>
@@ -2367,61 +2560,61 @@
         <v>19</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R1" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="U1" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="T1" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="W1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -2429,7 +2622,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -2438,22 +2631,22 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>138</v>
+        <v>333</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>139</v>
+        <v>334</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>15</v>
@@ -2465,7 +2658,7 @@
         <v>3</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O2" s="16" t="s">
         <v>16</v>
@@ -2477,54 +2670,54 @@
         <v>2000</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>15</v>
@@ -2536,7 +2729,7 @@
         <v>3</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>17</v>
@@ -2548,57 +2741,57 @@
         <v>2000</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T3" s="8">
         <v>2016</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L4" s="16">
         <v>24</v>
@@ -2607,7 +2800,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O4" s="15" t="s">
         <v>17</v>
@@ -2619,57 +2812,57 @@
         <v>2000</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L5" s="16">
         <v>24</v>
@@ -2678,7 +2871,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O5" s="15" t="s">
         <v>17</v>
@@ -2690,57 +2883,57 @@
         <v>2000</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L6" s="16">
         <v>24</v>
@@ -2749,7 +2942,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>17</v>
@@ -2761,57 +2954,57 @@
         <v>2000</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L7" s="16">
         <v>24</v>
@@ -2820,7 +3013,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O7" s="15" t="s">
         <v>17</v>
@@ -2832,30 +3025,30 @@
         <v>2000</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -2864,25 +3057,25 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L8" s="16">
         <v>24</v>
@@ -2891,7 +3084,7 @@
         <v>3</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>17</v>
@@ -2903,30 +3096,30 @@
         <v>2000</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T8" s="8">
         <v>2013</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
@@ -2935,25 +3128,25 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L9" s="16">
         <v>24</v>
@@ -2962,7 +3155,7 @@
         <v>3</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>17</v>
@@ -2974,30 +3167,30 @@
         <v>2000</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T9" s="8">
         <v>2013</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -3006,25 +3199,25 @@
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L10" s="16">
         <v>24</v>
@@ -3033,7 +3226,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O10" s="16" t="s">
         <v>17</v>
@@ -3045,57 +3238,57 @@
         <v>2000</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="T10" s="8">
         <v>2013</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="I11" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L11" s="16">
         <v>24</v>
@@ -3104,7 +3297,7 @@
         <v>3</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O11" s="16" t="s">
         <v>17</v>
@@ -3116,57 +3309,57 @@
         <v>2000</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="T11" s="8">
         <v>2013</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="187" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>138</v>
-      </c>
       <c r="J12" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L12" s="16">
         <v>32</v>
@@ -3175,7 +3368,7 @@
         <v>3</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O12" s="16" t="s">
         <v>17</v>
@@ -3187,57 +3380,57 @@
         <v>2500</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="T12" s="8">
         <v>2014</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="272" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L13" s="16">
         <v>24</v>
@@ -3246,7 +3439,7 @@
         <v>3</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O13" s="16" t="s">
         <v>17</v>
@@ -3258,30 +3451,30 @@
         <v>2000</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="T13" s="8">
         <v>2013</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>271</v>
+        <v>341</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -3290,22 +3483,22 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>15</v>
@@ -3317,7 +3510,7 @@
         <v>3</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O14" s="16" t="s">
         <v>16</v>
@@ -3329,54 +3522,54 @@
         <v>2000</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T14" s="8">
         <v>2013</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="V14" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K15" s="21" t="s">
         <v>15</v>
@@ -3388,7 +3581,7 @@
         <v>3</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O15" s="16" t="s">
         <v>16</v>
@@ -3400,54 +3593,54 @@
         <v>2000</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K16" s="16" t="s">
         <v>15</v>
@@ -3459,7 +3652,7 @@
         <v>3</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O16" s="16" t="s">
         <v>16</v>
@@ -3471,57 +3664,57 @@
         <v>2000</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T16" s="8">
         <v>2016</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>279</v>
-      </c>
       <c r="I17" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L17" s="16">
         <v>32</v>
@@ -3530,7 +3723,7 @@
         <v>3</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O17" s="21" t="s">
         <v>17</v>
@@ -3542,57 +3735,57 @@
         <v>2000</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L18" s="16">
         <v>32</v>
@@ -3601,7 +3794,7 @@
         <v>3</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O18" s="16" t="s">
         <v>17</v>
@@ -3613,30 +3806,30 @@
         <v>2000</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="T18" s="8">
         <v>2015</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -3645,22 +3838,22 @@
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>335</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>28</v>
+        <v>336</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>15</v>
@@ -3672,7 +3865,7 @@
         <v>3</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O19" s="16" t="s">
         <v>16</v>
@@ -3684,57 +3877,57 @@
         <v>2000</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T19" s="8">
         <v>2013</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>40</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="I20" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L20" s="16">
         <v>24</v>
@@ -3743,7 +3936,7 @@
         <v>3</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O20" s="16" t="s">
         <v>17</v>
@@ -3755,54 +3948,54 @@
         <v>2000</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T20" s="8">
         <v>2014</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>15</v>
@@ -3814,7 +4007,7 @@
         <v>3</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O21" s="15" t="s">
         <v>16</v>
@@ -3826,54 +4019,54 @@
         <v>2500</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T21" s="8">
         <v>2014</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>15</v>
@@ -3885,7 +4078,7 @@
         <v>3</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O22" s="15" t="s">
         <v>16</v>
@@ -3897,54 +4090,54 @@
         <v>2500</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T22" s="8">
         <v>2014</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>15</v>
@@ -3956,7 +4149,7 @@
         <v>3</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O23" s="15" t="s">
         <v>16</v>
@@ -3968,54 +4161,54 @@
         <v>2500</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T23" s="8">
         <v>2014</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K24" s="16" t="s">
         <v>15</v>
@@ -4027,7 +4220,7 @@
         <v>3</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O24" s="15" t="s">
         <v>16</v>
@@ -4039,54 +4232,54 @@
         <v>2500</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T24" s="8">
         <v>2014</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K25" s="16" t="s">
         <v>15</v>
@@ -4098,7 +4291,7 @@
         <v>3</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O25" s="15" t="s">
         <v>16</v>
@@ -4110,54 +4303,54 @@
         <v>2500</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T25" s="8">
         <v>2014</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" s="11" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>303</v>
+        <v>344</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>4</v>
+        <v>346</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>25</v>
+        <v>343</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>26</v>
+        <v>342</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>219</v>
+        <v>348</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>220</v>
+        <v>347</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K26" s="16" t="s">
         <v>15</v>
@@ -4169,7 +4362,7 @@
         <v>3</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O26" s="16" t="s">
         <v>16</v>
@@ -4178,199 +4371,199 @@
         <v>80</v>
       </c>
       <c r="Q26" s="16">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="T26" s="8" t="s">
-        <v>165</v>
+        <v>349</v>
+      </c>
+      <c r="T26" s="8">
+        <v>2017</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="W26" s="5" t="s">
-        <v>166</v>
+        <v>350</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="238" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>59</v>
+        <v>140</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="L27" s="16">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M27" s="16">
         <v>3</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P27" s="19">
         <v>80</v>
       </c>
-      <c r="Q27" s="17">
+      <c r="Q27" s="16">
         <v>2000</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="S27" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="T27" s="8">
-        <v>2013</v>
+        <v>160</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>335</v>
+        <v>172</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>336</v>
+        <v>163</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="238" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="I28" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>15</v>
+        <v>136</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="L28" s="16">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M28" s="16">
         <v>3</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P28" s="19">
         <v>80</v>
       </c>
-      <c r="Q28" s="16">
+      <c r="Q28" s="17">
         <v>2000</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="S28" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="S28" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="T28" s="8" t="s">
-        <v>165</v>
+      <c r="T28" s="8">
+        <v>2013</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>166</v>
+        <v>327</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="W28" s="5" t="s">
-        <v>166</v>
+        <v>173</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="I29" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K29" s="16" t="s">
         <v>15</v>
@@ -4378,153 +4571,153 @@
       <c r="L29" s="16">
         <v>24</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="16">
         <v>3</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P29" s="19">
-        <v>78</v>
-      </c>
-      <c r="Q29" s="17">
+        <v>80</v>
+      </c>
+      <c r="Q29" s="16">
         <v>2000</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="T29" s="8">
-        <v>2016</v>
+        <v>161</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="187" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K30" s="16" t="s">
         <v>15</v>
       </c>
       <c r="L30" s="16">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M30" s="15">
         <v>3</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O30" s="16" t="s">
         <v>17</v>
       </c>
       <c r="P30" s="19">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q30" s="17">
         <v>2000</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="S30" s="11" t="s">
-        <v>334</v>
+        <v>160</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="T30" s="8">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V30" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>337</v>
+        <v>163</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="255" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>133</v>
+        <v>354</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>213</v>
+        <v>355</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>360</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>69</v>
+        <v>361</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>210</v>
+        <v>363</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>211</v>
+        <v>362</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K31" s="16" t="s">
         <v>15</v>
       </c>
       <c r="L31" s="16">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M31" s="15">
         <v>3</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O31" s="16" t="s">
         <v>17</v>
@@ -4536,54 +4729,54 @@
         <v>2000</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="S31" s="11" t="s">
-        <v>334</v>
+        <v>167</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>370</v>
       </c>
       <c r="T31" s="8">
-        <v>2012</v>
-      </c>
-      <c r="U31" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="V31" s="11" t="s">
-        <v>289</v>
+        <v>2017</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>125</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="255" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>114</v>
+        <v>353</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>291</v>
+        <v>356</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>148</v>
+        <v>368</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>140</v>
+        <v>369</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>141</v>
+        <v>367</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>204</v>
+        <v>363</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>143</v>
+        <v>362</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="K32" s="16" t="s">
         <v>15</v>
@@ -4595,10 +4788,10 @@
         <v>3</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P32" s="19">
         <v>80</v>
@@ -4607,69 +4800,69 @@
         <v>2000</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="S32" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="T32" s="8" t="s">
-        <v>310</v>
+      <c r="S32" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="T32" s="8">
+        <v>2017</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="V32" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="W32" s="5" t="s">
-        <v>166</v>
+        <v>357</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="187" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>291</v>
+        <v>209</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>141</v>
+        <v>64</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I33" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="J33" s="23" t="s">
-        <v>143</v>
+        <v>208</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="K33" s="16" t="s">
         <v>15</v>
       </c>
       <c r="L33" s="16">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M33" s="15">
         <v>3</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P33" s="19">
         <v>80</v>
@@ -4678,69 +4871,69 @@
         <v>2000</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="T33" s="8" t="s">
-        <v>310</v>
+        <v>326</v>
+      </c>
+      <c r="T33" s="8">
+        <v>2013</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="V33" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="W33" s="5" t="s">
-        <v>166</v>
+        <v>280</v>
+      </c>
+      <c r="V33" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>291</v>
+        <v>210</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>141</v>
+        <v>64</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K34" s="16" t="s">
         <v>15</v>
       </c>
       <c r="L34" s="16">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M34" s="15">
         <v>3</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O34" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P34" s="19">
         <v>80</v>
@@ -4749,54 +4942,54 @@
         <v>2000</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="T34" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="V34" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="W34" s="5" t="s">
-        <v>166</v>
+        <v>326</v>
+      </c>
+      <c r="T34" s="8">
+        <v>2012</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="V34" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E35" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="J35" s="23" t="s">
         <v>140</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>139</v>
       </c>
       <c r="K35" s="16" t="s">
         <v>15</v>
@@ -4808,7 +5001,7 @@
         <v>3</v>
       </c>
       <c r="N35" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O35" s="16" t="s">
         <v>16</v>
@@ -4820,54 +5013,54 @@
         <v>2000</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T35" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="V35" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C36" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="E36" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="J36" s="23" t="s">
         <v>140</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>139</v>
       </c>
       <c r="K36" s="16" t="s">
         <v>15</v>
@@ -4879,9 +5072,9 @@
         <v>3</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="O36" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="O36" s="16" t="s">
         <v>16</v>
       </c>
       <c r="P36" s="19">
@@ -4891,54 +5084,54 @@
         <v>2000</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S36" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T36" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>147</v>
+        <v>286</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K37" s="16" t="s">
         <v>15</v>
@@ -4950,9 +5143,9 @@
         <v>3</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="O37" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="O37" s="16" t="s">
         <v>16</v>
       </c>
       <c r="P37" s="19">
@@ -4962,54 +5155,54 @@
         <v>2000</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S37" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="V37" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W37" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K38" s="16" t="s">
         <v>15</v>
@@ -5021,9 +5214,9 @@
         <v>3</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="O38" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="O38" s="16" t="s">
         <v>16</v>
       </c>
       <c r="P38" s="19">
@@ -5033,306 +5226,519 @@
         <v>2000</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T38" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="V38" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:23" s="11" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>76</v>
+        <v>286</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K39" s="16" t="s">
         <v>15</v>
       </c>
       <c r="L39" s="16">
-        <v>32</v>
-      </c>
-      <c r="M39" s="16">
+        <v>24</v>
+      </c>
+      <c r="M39" s="15">
         <v>3</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="O39" s="16" t="s">
-        <v>17</v>
+        <v>177</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="P39" s="19">
-        <v>78</v>
-      </c>
-      <c r="Q39" s="16">
+        <v>80</v>
+      </c>
+      <c r="Q39" s="17">
         <v>2000</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="S39" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="S39" s="11" t="s">
         <v>164</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="U39" s="5" t="s">
-        <v>166</v>
+        <v>305</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>124</v>
+        <v>163</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:23" s="11" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>76</v>
+        <v>286</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K40" s="16" t="s">
         <v>15</v>
       </c>
       <c r="L40" s="16">
-        <v>32</v>
-      </c>
-      <c r="M40" s="16">
+        <v>24</v>
+      </c>
+      <c r="M40" s="15">
         <v>3</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="O40" s="16" t="s">
-        <v>17</v>
+        <v>177</v>
+      </c>
+      <c r="O40" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="P40" s="19">
-        <v>78</v>
-      </c>
-      <c r="Q40" s="16">
+        <v>80</v>
+      </c>
+      <c r="Q40" s="17">
         <v>2000</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="S40" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="S40" s="11" t="s">
         <v>164</v>
       </c>
       <c r="T40" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="U40" s="5" t="s">
-        <v>166</v>
+        <v>305</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>124</v>
+        <v>163</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="11" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>294</v>
+        <v>116</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>76</v>
+        <v>148</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K41" s="16" t="s">
         <v>15</v>
       </c>
       <c r="L41" s="16">
+        <v>24</v>
+      </c>
+      <c r="M41" s="15">
+        <v>3</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="O41" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P41" s="19">
+        <v>80</v>
+      </c>
+      <c r="Q41" s="17">
+        <v>2000</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="S41" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="T41" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="W41" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" s="11" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" s="16">
         <v>32</v>
       </c>
-      <c r="M41" s="16">
+      <c r="M42" s="16">
         <v>3</v>
       </c>
-      <c r="N41" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="O41" s="16" t="s">
+      <c r="N42" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="O42" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="P41" s="19">
+      <c r="P42" s="19">
         <v>78</v>
       </c>
-      <c r="Q41" s="16">
+      <c r="Q42" s="16">
         <v>2000</v>
       </c>
-      <c r="R41" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="S41" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="T41" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="U41" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="V41" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="W41" s="1" t="s">
+      <c r="R42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S42" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="T42" s="8">
+        <v>2015</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" s="11" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="J43" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L43" s="16">
+        <v>32</v>
+      </c>
+      <c r="M43" s="16">
+        <v>3</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="O43" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P43" s="19">
+        <v>78</v>
+      </c>
+      <c r="Q43" s="16">
+        <v>2000</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="T43" s="8">
+        <v>2015</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="V43" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" s="11" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J44" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L44" s="16">
+        <v>32</v>
+      </c>
+      <c r="M44" s="16">
+        <v>3</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="O44" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P44" s="19">
+        <v>78</v>
+      </c>
+      <c r="Q44" s="16">
+        <v>2000</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S44" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="T44" s="8">
+        <v>2015</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="V44" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="255" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J45" s="15" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" ht="255" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="J42" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="K42" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="L42" s="16">
+      <c r="K45" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L45" s="16">
         <v>24</v>
       </c>
-      <c r="M42" s="15">
+      <c r="M45" s="15">
         <v>3</v>
       </c>
-      <c r="N42" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="O42" s="15" t="s">
+      <c r="N45" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="O45" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="P42" s="20">
+      <c r="P45" s="20">
         <v>80</v>
       </c>
-      <c r="Q42" s="15">
+      <c r="Q45" s="15">
         <v>2000</v>
       </c>
-      <c r="R42" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="S42" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="T42" s="8">
+      <c r="R45" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="S45" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="T45" s="8">
         <v>2014</v>
       </c>
-      <c r="U42" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V42" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="W42" s="1" t="s">
-        <v>338</v>
+      <c r="U45" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="V45" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/measures/IRAP procedural parameters, stimuli, and publication status.xlsx
+++ b/measures/IRAP procedural parameters, stimuli, and publication status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/git/irap-reliability-meta-analysis/measures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A9E742-C872-724C-AA7A-A55935142885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01772B18-4A49-3747-9D23-8A086B84BFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="740" windowWidth="28000" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="382">
   <si>
     <t>Religion</t>
   </si>
@@ -539,9 +539,6 @@
   </si>
   <si>
     <t>Consistent first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drake, C. E., Seymour, K., &amp; Habib, R. (2016). Testing the IRAP: Exploring the reliability and fakability of an idiographic approach to interpersonal attitudes. The Psychological Record, 66, 153-163. </t>
   </si>
   <si>
     <r>
@@ -568,14 +565,1144 @@
     </r>
   </si>
   <si>
-    <t>Drake et al. (2018) Comparing Implicit Gender Stereotypes Between Women and Men with the Implicit Relational Assessment Procedure</t>
-  </si>
-  <si>
     <t>A similar IRAP was employed in Cartwright et al. (2016) An investigation into the relationship between the gender binary and occupational discrimination using the Implicit Relational Assessment Procedure</t>
   </si>
   <si>
+    <t>Similar IRAPs were employed in Barnes-Holmes et al. (2010) The Implicit Relational Assessment Procedure: Exploring the impact of private versus public contexts and the response latency criterion on pro-white and anti-black stereotyping among white Irish individuals; Power et al. (2017) Exploring Racial Bias in a European Country with a Recent History of Immigration of Black Africans; Power et al. (2017) Combining the implicit Relational Assessment Procedure and the recording of event related potentials in the analysis of racial bias: A preliminary study; and Dunne et al. (2018) Faking a race IRAP effect in the context of single versus multiple label stimuli</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Stimuli identical to those used in Nicholson et al.'s Disgust Sensitivity IRAP and were taken from the Images taken from the International Affective Picture System: "The picture numbers from the IAPs were as follows: 1111, 1205, 1280, 3250, 9300, 9373, 9405, 1440, 1463, 1710, 1750, 5201, 5250, 5731, 5760. The 16th pictorial stimulus was a photograph of Hitler which aimed to evoke socio-moral disgust."</t>
+  </si>
+  <si>
+    <t>Accuracy feedback</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Convenience sample of undergraduate students at an Irish university. No compensation was offered.</t>
+  </si>
+  <si>
+    <t>Convenience sample of undergraduate psychology students at an English university. No compensation was offered.</t>
+  </si>
+  <si>
+    <t>Similar</t>
+  </si>
+  <si>
+    <t>Different</t>
+  </si>
+  <si>
+    <t>Now please answer AS IF you associate yourself with death and others with life</t>
+  </si>
+  <si>
+    <t>Now please answer AS IF you associate yourself with life and others with death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myself	
+My    	
+Mine  	
+I     	
+Self  	
+Me    	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Them  	
+They  	
+Theirs	
+Their 	
+Other 	
+Others	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death   	
+Die     	
+Funeral 	
+Lifeless	
+Deceased	
+Dead    	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alive    
+Live     
+Thrive   
+Survive  
+Breathing
+Living   </t>
+  </si>
+  <si>
+    <t>enjoyable
+exciting
+great
+lovely
+pleasant
+satisfying</t>
+  </si>
+  <si>
+    <t>awful
+distressing
+horrible
+hurtful
+painful
+upsetting</t>
+  </si>
+  <si>
+    <t>calm
+comfort
+escape
+peaceful
+relief
+soothing</t>
+  </si>
+  <si>
+    <t>I Need to Look Away
+I Need to Escape
+I Worry I'll Get Sick
+I Cannot Cope
+I Worry I Might Faint
+I Fear Contamination
+I Fear Losing Control
+I Cannot Tolerate It</t>
+  </si>
+  <si>
+    <t>I Can Look, I Can Stay
+I Know I'll be Fine
+I Can Tolerate It
+I'm Sure I'll be OK
+I Have No Fear
+I Feel In Control
+I Can Cope With This</t>
+  </si>
+  <si>
+    <t>caring
+friend
+good
+nice
+safe
+trustworthy</t>
+  </si>
+  <si>
+    <t>bad
+cruel
+dangerous
+enemy
+hateful
+selfish</t>
+  </si>
+  <si>
+    <t>forceful
+logical
+dominant
+forceful
+logical
+dominant</t>
+  </si>
+  <si>
+    <t>gentle
+emotional
+sensitive
+gentle
+emotional
+sensitive</t>
+  </si>
+  <si>
+    <t>boss
+chief
+director
+head
+leader
+manager</t>
+  </si>
+  <si>
+    <t>aide
+assistant
+follower
+helper
+subordinate
+supporter</t>
+  </si>
+  <si>
+    <t>females
+women</t>
+  </si>
+  <si>
+    <t>males
+men</t>
+  </si>
+  <si>
+    <t>Triangle
+Circle
+Square
+Triangle
+Circle
+Square</t>
+  </si>
+  <si>
+    <t>Green
+Red
+Blue
+Green
+Red
+Blue</t>
+  </si>
+  <si>
+    <t>balanced
+competent
+good
+healthy
+normal
+reliable
+safe
+trustworthy</t>
+  </si>
+  <si>
+    <t>crazy
+damaged
+defective
+distracted
+lazy
+sick
+stupid
+weak</t>
+  </si>
+  <si>
+    <t>angry
+crazy
+damaged
+dangerous
+defective
+different
+sick
+unstable</t>
+  </si>
+  <si>
+    <t>crazy
+damaged
+dangerous
+defective
+different
+sick
+unstable
+weak</t>
+  </si>
+  <si>
+    <t>Arousing
+Arousing
+Erotic
+Erotic
+Attractive
+Attractive
+Sensual
+Sensual
+Exciting
+Exciting</t>
+  </si>
+  <si>
+    <t>Awful
+Awful
+Repulsive
+Repulsive
+Repelling
+Repelling
+Repugnant
+Repugnant
+Repellent
+Repellent</t>
+  </si>
+  <si>
+    <t>Sexuality IRAP assessing sexualisation of men vs women</t>
+  </si>
+  <si>
+    <t>Identical to Sexuality (1) but collected in a different sample.</t>
+  </si>
+  <si>
+    <t>Personality IRAP intended to assess Agreeableness</t>
+  </si>
+  <si>
+    <t>Personality IRAP intended to assess Conscientiousness</t>
+  </si>
+  <si>
+    <t>Personality IRAP intended to assess Extraversion</t>
+  </si>
+  <si>
+    <t>Personality IRAP intended to assess Neuroticism</t>
+  </si>
+  <si>
+    <t>Personality IRAP intended to assess Openness</t>
+  </si>
+  <si>
+    <t>deserving
+good
+motivated
+smart
+superior
+worthy</t>
+  </si>
+  <si>
+    <t>bad
+deficient
+inadequate
+inferior
+lazy
+stupid</t>
+  </si>
+  <si>
+    <t>compassionate
+correct
+good
+loving
+safe
+truthful</t>
+  </si>
+  <si>
+    <t>cruel
+flawed
+bad
+hateful
+dangerous
+dishonest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friendly
+kind
+polite
+safe
+friendly
+kind
+polite
+safe
+</t>
+  </si>
+  <si>
+    <t>aggressive
+dangerous
+painful
+rude
+aggressive
+dangerous
+painful
+rude</t>
+  </si>
+  <si>
+    <t>adventurous
+curious
+attracted to NEW things
+open to NEW ideas
+creative
+interested in VARIETY</t>
+  </si>
+  <si>
+    <t>traditional
+set in my ways
+attracted to the FAMILIAR
+conservative
+cautious
+interested in ROUTINE</t>
+  </si>
+  <si>
+    <t>I feel HAPPY
+I feel RELAXED
+I am CALM
+I have POSITIVE thoughts
+I feel COMFORTABLE
+I ENJOY it</t>
+  </si>
+  <si>
+    <t>I feel SAD
+I feel NERVOUS
+I am IRRITABLE
+I have NEGATIVE thoughts
+I feel STRESSED OUT
+I HATE it</t>
+  </si>
+  <si>
+    <t>I am COMFORTABLE
+I am WHERE I WANT to be
+I have FUN
+I ENJOY it
+I am IN MY ELEMENT
+I am GLAD</t>
+  </si>
+  <si>
+    <t>I feel OUT OF PLACE
+I DON'T KNOW what to do
+I feel ANXIOUS
+I find it DIFFICULT
+I WANT it to CHANGE
+I WANT to be SOMEWHERE ELSE</t>
+  </si>
+  <si>
+    <t>ambitious
+efficient
+energetic
+motivated
+organized
+reliable</t>
+  </si>
+  <si>
+    <t>absent-minded
+bored
+careless
+distracted
+impulsive
+lazy</t>
+  </si>
+  <si>
+    <t>caring
+considerate
+cooperative
+generous
+trusting
+warm</t>
+  </si>
+  <si>
+    <t>aggressive
+cold
+competitive
+detached
+guarded
+suspicious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic education in Uganda
+Extreme poverty in Afghanistan
+Safe drinking water in Bangladesh
+Basic sanitation in Pakistan
+Vaccinations in Nigeria
+Starving people in Zimbabwe   </t>
+  </si>
+  <si>
+    <t>Basic education in Belgium
+Extreme poverty in New Zealand
+Safe drinking water in Sweden
+Basic sanitation in Denmark
+Vaccinations in Norway
+Starving people in Canada</t>
+  </si>
+  <si>
+    <t>are poor
+are hungry
+are sick
+are weak
+are uneducated
+are jobless</t>
+  </si>
+  <si>
+    <t>are well paid
+are well fed
+are educated
+are healthy
+are employed
+are safe</t>
+  </si>
+  <si>
+    <t>corruption in Nigeria
+exploitation in Bangladesh
+discrimination in Pakistan
+violence in Haiti
+hunger in Zimbabwe
+poverty in Uganda</t>
+  </si>
+  <si>
+    <t>corruption in New Zealand
+exploitation in Canada
+discrimination in Sweden
+violence in Denmark
+hunger in Belgium
+poverty in Switzerland</t>
+  </si>
+  <si>
+    <t>Justice
+Fairness
+Freedom
+Physical Safety
+Health
+Equality</t>
+  </si>
+  <si>
+    <t>Corruption
+Exploitation
+Discrimination
+Violence
+Hunger
+Poverty</t>
+  </si>
+  <si>
+    <t>excellent
+friend
+good
+safe
+trustworthy
+wonderful</t>
+  </si>
+  <si>
+    <t>awful
+bad
+disaster
+enemy
+horrible
+terrible</t>
+  </si>
+  <si>
+    <t>active
+attractive
+desirable
+disciplined
+good
+healthy</t>
+  </si>
+  <si>
+    <t>IRAP assessing life-death self-other relating</t>
+  </si>
+  <si>
+    <t>IRAP assessing evaluations of living vs dying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identical to that used in Hussey, Barnes-Holmes, &amp; Booth (2016) Individuals with current suicidal ideation demonstrate implicit 'fearlessness of death'. </t>
+  </si>
+  <si>
+    <t>IRAP assessing evaluations of life vs death</t>
+  </si>
+  <si>
+    <t>IRAP assessing evaluations of my death vs others' deaths</t>
+  </si>
+  <si>
+    <t>[Participant generated name of friend]</t>
+  </si>
+  <si>
+    <t>[Participant generated name of enemy]</t>
+  </si>
+  <si>
+    <t>Spiders2.jpg
+Snakes.jpg
+Rat1.jpg
+Hand.jpg
+Mouth.jpg
+Toilet1.jpg
+Vomit.jpg
+adolf-hitler.jpg</t>
+  </si>
+  <si>
+    <t>Bunny2.jpg
+Kittens.jpg
+Nature1.jpg
+Puppy.jpg
+Seal.jpg
+Nature2.jpg
+Nature3.jpg
+Nature4.jpg</t>
+  </si>
+  <si>
+    <t>I care about
+I worry about
+I am concerned about</t>
+  </si>
+  <si>
+    <t>I don't care about
+I don't worry about
+I am not concerned about</t>
+  </si>
+  <si>
+    <t>People in New Zealand
+People in Canada
+People in Sweden
+People in Denmark
+People in Norway
+People in Belgium</t>
+  </si>
+  <si>
+    <t>People in Uganda
+People in Afghanistan
+People in Bangladesh
+People in Pakistan
+People in Nigeria
+People in Zimbabwe</t>
+  </si>
+  <si>
+    <t>I care about</t>
+  </si>
+  <si>
+    <t>I try to ignore</t>
+  </si>
+  <si>
+    <t>New Zealand is known for
+Canada is known for
+Sweden is known for
+Denmark is known for
+Norway is known for
+Belgium is known for</t>
+  </si>
+  <si>
+    <t>Uganda is known for
+Afghanistan is known for
+Bangladesh is known for
+Pakistan is known for
+Nigeria is known for
+Zimbabwe is known for</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>IRAP assessing what developed vs developing countries are known for</t>
+  </si>
+  <si>
+    <t>IRAP assessing stereotypes about developed vs developing countries</t>
+  </si>
+  <si>
+    <t>IRAP assessing caring vs not caring about positive and negative issues in developed vs developing countries</t>
+  </si>
+  <si>
+    <t>IRAP assessing caring about vs ignoring negative issues in developed vs developing countries</t>
+  </si>
+  <si>
+    <t>IRAP assessing evaluations of Hilary Clinton vs Donald Trump</t>
+  </si>
+  <si>
+    <t>IRAP assessing evaluations of skinny vs fat</t>
+  </si>
+  <si>
+    <t>IRAP assessing gender personality stereotypes</t>
+  </si>
+  <si>
+    <t>IRAP assessing gender professional stereotypes</t>
+  </si>
+  <si>
+    <t>Please respond as if men have more stereotypically masculine traits and women more stereotypically feminine traits</t>
+  </si>
+  <si>
+    <t>Please respond as if men have more stereotypically feminine traits and women more stereotypically masculine traits</t>
+  </si>
+  <si>
+    <t>Men are</t>
+  </si>
+  <si>
+    <t>Women are</t>
+  </si>
+  <si>
+    <t>Affectionate
+Gentle
+Nurturing
+Sensitive
+Affectionate
+Gentle
+Nurturing
+Sensitive</t>
+  </si>
+  <si>
+    <t>Charismatic
+Competitive
+Decisive
+Witty
+Charismatic
+Competitive
+Decisive
+Witty</t>
+  </si>
+  <si>
+    <t>IRAP assessing positive gender stereotypes</t>
+  </si>
+  <si>
+    <t>IRAP assessing negative gender stereotypes</t>
+  </si>
+  <si>
+    <t>Aggressive
+Unemotional
+Insensitive
+Arrogant
+Aggressive
+Unemotional
+Insensitive
+Arrogant</t>
+  </si>
+  <si>
+    <t>Bitchy
+Insecure
+Bossy
+Helpless
+Bitchy
+Insecure
+Bossy
+Helpless</t>
+  </si>
+  <si>
+    <t>This IRAP was also used in O'Shea et al. (2016) Measuring implicit attitudes: A positive framing bias flaw in the Implicit Relational Assessment Procedure (IRAP)</t>
+  </si>
+  <si>
+    <t>Hughes, Hussey, Corrigan, Jolie, Murphy, &amp; Barnes-Holmes. (2016) Faking revisited: Exerting strategic control over performance on the Implicit Relational Assessment Procedure: IRAP faking</t>
+  </si>
+  <si>
+    <t>IRAP is identical to that used in Timmins, Barnes-Holmes &amp; Cullen (2016) Measuring implicit sexual response biases to nude male and female pictures in androphilic and gynephilic men.</t>
+  </si>
+  <si>
+    <t>De Schryver, Hussey, De Neve, Cartwright, &amp; Barnes-Holmes (2017) The PIIRAP: An alternative scoring algorithm for the IRAP using a probabilistic semiparametric effect size measure
+See also Cartwright (2019) Automatic Gender Binary Beliefs and their Role in Gender Inequality [PhD thesis]</t>
+  </si>
+  <si>
+    <t>Similar to De Schryver, Hussey, De Neve, Cartwright, &amp; Barnes-Holmes (2017) The PIIRAP: An alternative scoring algorithm for the IRAP using a probabilistic semiparametric effect size measure, but using negative stereotypes.
+See also Cartwright (2019) Automatic Gender Binary Beliefs and their Role in Gender Inequality [PhD thesis]</t>
+  </si>
+  <si>
+    <t>IRAP is identical to that used in Timmins, Barnes-Holmes &amp; Cullen (2016) Measuring implicit sexual response biases to nude male and female pictures in androphilic and gynephilic men and Hughes, Hussey, Corrigan, Jolie, Murphy, &amp; Barnes-Holmes. (2016) Faking revisited: Exerting strategic control over performance on the Implicit Relational Assessment Procedure: IRAP faking</t>
+  </si>
+  <si>
+    <t>Finn, Barnes-Holmes, Hussey, &amp; Graddy (2016) Exploring the Behavioral Dynamics of the Implicit Relational Assessment Procedure: The Impact of Three Types of Introductory Rules</t>
+  </si>
+  <si>
+    <t>IRAP examining the relating of the categories of shapes and colors to exemplars of each</t>
+  </si>
+  <si>
+    <t>IRAP assessing stigma towards ADHD after reading a vignette</t>
+  </si>
+  <si>
+    <t>IRAP assessing stigma towards PTSD after reading a vignette</t>
+  </si>
+  <si>
+    <t>IRAP assessing stigma towards schozophrenia after reading a vignette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRAP involving relating positive vs. negative words with posiitve vs. negative descriptors </t>
+  </si>
+  <si>
+    <t>IRAP assessing evaluations of two neutral non-words</t>
+  </si>
+  <si>
+    <t>Disgust propensity IRAP</t>
+  </si>
+  <si>
+    <t>Disgust sensitivity IRAP</t>
+  </si>
+  <si>
+    <t>IRAP identical to the disgust sensitivity IRAP used in Nicholson, E., &amp; Barnes-Holmes, D. (2012). Developing an implicit measure of disgust propensity and disgust sensitivity</t>
+  </si>
+  <si>
+    <t>IRAP assessing evaluations of Lincoln vs Hitler</t>
+  </si>
+  <si>
+    <t>CUG</t>
+  </si>
+  <si>
+    <t>VEC</t>
+  </si>
+  <si>
+    <t>IRAP assessing racial bias towards Black people vs White people</t>
+  </si>
+  <si>
+    <t>IRAP assessing religious bias towards christians vs muslims</t>
+  </si>
+  <si>
+    <t>IRAP assessing evaluations of rich vs poor people</t>
+  </si>
+  <si>
+    <t>Exciting
+Great
+Lovely
+Pleasant
+Satisfying
+Enjoyable</t>
+  </si>
+  <si>
+    <t>Distressing
+Awful
+Hurtful
+Horrible
+Painful
+Upsetting</t>
+  </si>
+  <si>
+    <t>CUG is negative and VEC is positive
+/
+VEC is negative and CUG is positive
+[counterbalanced between participants]</t>
+  </si>
+  <si>
+    <t>CUG is positive and VEC is negative
+/
+VEC is positive and CUG is negative
+[counterbalanced between participants]</t>
+  </si>
+  <si>
+    <t>2014-2015</t>
+  </si>
+  <si>
+    <t>2013-2014</t>
+  </si>
+  <si>
+    <t>2013-2015</t>
+  </si>
+  <si>
+    <t>2013-2016</t>
+  </si>
+  <si>
+    <t>2013-2017</t>
+  </si>
+  <si>
+    <t>Convenience sample of undergraduate students at a Belgian university. Participants were paid either €5or course credit.</t>
+  </si>
+  <si>
+    <t>English translation:
+bad
+unpleasant
+nasty
+negative
+horrible
+terrible
+Original Dutch:
+SLECHT
+ONAANGENAAM
+AKELIG
+NEGATIEF
+AFSCHUWELIJK
+VRESELIJK</t>
+  </si>
+  <si>
+    <t>English translation:
+good
+pleasant
+fun
+positive
+fantastic
+excellent
+Original Dutch:
+GOED
+AANGENAAM
+LEUK
+POSITIEF
+FANTASTISCH
+UITSTEKEND</t>
+  </si>
+  <si>
+    <t>English translation:
+Hitler
+pedophile
+cancer
+incest
+murder
+suicide
+Original Dutch:
+PEDOFIEL
+KANKER
+INCEST
+MOORD
+HITLER
+ZELFMOORD</t>
+  </si>
+  <si>
+    <t>English translation:
+happy
+friendship
+joy
+peace
+love
+pleasure
+Original Dutch:
+GELUKKIG
+VRIENDSCHAP
+BLIJDSCHAP
+LIEFDE
+VREDE
+PLEZIER</t>
+  </si>
+  <si>
+    <t>English translation:
+I find it horrible
+I think it is disgusting
+It looks nasty
+I feel revolted
+It makes me sick
+I am repulsed
+Original Dutch:
+IK VIND HET VRESELIJK
+IK VIND DAT HET WALGELIJK IS
+HET ZIET ER VIES UIT
+IK VOEL ME GEDEGOUTEERD
+DAT MAAKT ME MISSELIJK
+IK BEN GESCHOKT</t>
+  </si>
+  <si>
+    <t>English translation:
+I think it’s pleasant
+I find it nice
+It’s good
+It makes me feel happy
+It looks nice
+It makes me feel great
+Original Dutch:
+IK VIND HET PLEZIERIG
+IK VIND HET FIJN
+HET IS GOED
+HET MAAKT ME GELUKKIG
+HET ZIET ER GOED UIT
+HET GEEFT ME EEN ZALIG GEVOEL</t>
+  </si>
+  <si>
+    <t>IRAP was a direct translation of the disgust sensitivity IRAP used in Nicholson, E., &amp; Barnes-Holmes, D. (2012). Developing an implicit measure of disgust propensity and disgust sensitivity</t>
+  </si>
+  <si>
+    <t>Sample 1</t>
+  </si>
+  <si>
+    <t>Sample 2</t>
+  </si>
+  <si>
+    <t>Target 1</t>
+  </si>
+  <si>
+    <t>Target 2</t>
+  </si>
+  <si>
+    <t>Gender stereotypes (1)</t>
+  </si>
+  <si>
+    <t>Gender stereotypes (2)</t>
+  </si>
+  <si>
+    <t>Gender stereotypes (3)</t>
+  </si>
+  <si>
+    <t>Gender stereotypes (4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenience sample of undergraduate students at an Irish university who identified as both male and either gay or straight. No compensation was offered. </t>
+  </si>
+  <si>
+    <t>Hughes, Hussey, Corrigan, Jolie, Murphy, &amp; Barnes-Holmes. (2016) Faking revisited: Exerting strategic control over performance on the Implicit Relational Assessment Procedure: IRAP faking.</t>
+  </si>
+  <si>
+    <t>See "image stimuli" folder for images.  Note that only the baseline IRAP are included (i.e., prior to faking instructions).</t>
+  </si>
+  <si>
+    <t>Images taken from the International Affective Picture System (IAPS: Lang, Bradley, &amp; Cuthbert, 1997), which is proprietary and thereore cannot be distriuted here. Male picture numbers: 4460, 4500, 4534, 4550, 4561; female picture numbers: 4141, 4142, 4210, 4240, 4235.
+Note that only the baseline IRAP are included (i.e., prior to faking instructions).</t>
+  </si>
+  <si>
+    <t>Note that stimuli were presented in Dutch. English translations are presented here.
+Note that only the baseline IRAP are included (i.e., prior to faking instructions).</t>
+  </si>
+  <si>
+    <t>Images taken from the International Affective Picture System and found online, see Hughes, Hussey, Corrigan, Jolie, Murphy &amp; Barnes-Holmes (2016). 
+Note that only the baseline IRAP are included (i.e., prior to faking instructions).</t>
+  </si>
+  <si>
+    <t>bad
+ill
+lazy
+sloppy
+disgusting
+ugly</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Abraham Lincoln
+[image of Lincoln]</t>
+  </si>
+  <si>
+    <t>Adolf Hitler
+[image of Hitler]</t>
+  </si>
+  <si>
+    <t>Conditions utilized either names or images; conditions using images have not been published. See "image stimuli" folder for images</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>is not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is </t>
+  </si>
+  <si>
+    <t>IRAP assessing evaluations of a named personal friend vs a named personal enemy, using personalised stimuli.</t>
+  </si>
+  <si>
+    <t>English translation: 
+Bad professor
+Original Portugese:
+Mau Professor</t>
+  </si>
+  <si>
+    <t>English translation: 
+Good professor
+Original Portugese:
+Bom Professor</t>
+  </si>
+  <si>
+    <t>Professor competence</t>
+  </si>
+  <si>
+    <t>English translation: 
+Respond as if good professors have positive characteristics and bad professors have negative characteristics. Try to avoid the red X.
+Original Portugese:
+Responda como se Bom Professor tivesse caracterÌsticas positivas e Mau Professor tivesse caracterÌsticas negativas. Tente evitar o X vermelho.</t>
+  </si>
+  <si>
+    <t>English translation: 
+Respond as if bad professors have positive characteristics and good professors have negative characteristics. Try to avoid the red X.
+Original Portugese:
+Responda como se Mau Professor tivesse caracterÌsticas positivas e Bom Professor tivesse caracterÌsticas negativas. Tente evitar o X vermelho.</t>
+  </si>
+  <si>
+    <t>English translation: 
+Inaccessible
+Ineffective Communicator
+Sad
+Unaware of Content
+Unprepared
+Accommodated
+Original Portugese:
+InacessÌvel
+Comunicador Ineficaz
+Desanimado
+Desconhece o Conte˙do
+Despreparado
+Acomodado</t>
+  </si>
+  <si>
+    <t>English translation: 
+Accessible
+Effective Communicator
+enthusiastic
+Master the Content
+Prepared
+Search to improve yourself
+Original Portugese:
+AcessÌvel
+Comunicador Eficaz
+Entusiasmado
+Domina o Conte˙do
+Preparado
+Busca AperfeiÁoar-se</t>
+  </si>
+  <si>
+    <t>Convenience sample of undergraduate students at a Brazillian university. No remuneration was offered.</t>
+  </si>
+  <si>
+    <t>Note that stimuli were presented in Portugese. English translations are presented here.</t>
+  </si>
+  <si>
+    <t>IRAP assessing traits of good and bad professors</t>
+  </si>
+  <si>
+    <t>Self-competence (want to be)</t>
+  </si>
+  <si>
+    <t>Self-competence (am)</t>
+  </si>
+  <si>
+    <t>IRAP assessing perceived self competence (I am)</t>
+  </si>
+  <si>
+    <t>IRAP assessing desired self competence (I want to be)</t>
+  </si>
+  <si>
+    <t>Similarities to IRAP employed by Remue et al. (2013)</t>
+  </si>
+  <si>
+    <t>Note that stimuli were presented in Dutch. English translations are presented here.</t>
+  </si>
+  <si>
+    <t>English translation:
+Please respond as if I am competent and I am not incompetent
+Original Dutch:
+Gelieve te antwoorden ALSOF IK BEN competent en IK BEN NIET incompetent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English translation:
+Please respond as if I am incompetent and I am not competent
+Original Dutch:
+Gelieve te antwoorden ALSOF IK BEN incompetent en IK BEN NIET competent </t>
+  </si>
+  <si>
+    <t>English translation:
+Failed
+Incompetent
+Failed
+Ignorant
+Incompetent
+Dom
+Original Dutch:
+Mislukt
+Onbekwaam
+Gefaald
+Onkundig
+Incompetent
+Dom</t>
+  </si>
+  <si>
+    <t>English translation:
+Skilled
+Successful
+Capable
+Skilled
+Competent
+Skilled
+Original Dutch:
+Bekwaam
+Succesvol
+Capabel
+Kundig
+Competent
+Vaardig</t>
+  </si>
+  <si>
+    <t>English translation:
+I am
+Original Dutch:
+Ik ben</t>
+  </si>
+  <si>
+    <t>English translation:
+I am not
+Original Dutch:
+Ik ben niet</t>
+  </si>
+  <si>
+    <t>English translation:
+I desire
+Original Dutch:
+Ik verlang</t>
+  </si>
+  <si>
+    <t>English translation:
+I don't desire
+Original Dutch:
+Ik verlang niet</t>
+  </si>
+  <si>
+    <t>English translation:
+Please respond as if I desire to be competent and I do not desire to be incompetent
+Original Dutch:
+Gelieve te antwoorden ALSOF IK VERLANG competent te zijn en IK VERLANG NIET incompetent te zijn</t>
+  </si>
+  <si>
+    <t>English translation:
+Please respond as if I desire to be incompetent and I do not desire to be competent
+Original Dutch:
+Gelieve te antwoorden ALSOF IK VERLANG incompetent te zijn en IK VERLANG NIET competent te zijn</t>
+  </si>
+  <si>
+    <t>A sample of convenience from the participant pool (both students and non-students). Participants were paid €10.</t>
+  </si>
+  <si>
+    <t>Drake, Primeaux, &amp; Thomas. (2018) Comparing Implicit Gender Stereotypes Between Women and Men with the Implicit Relational Assessment Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drake, Seymour, &amp; Habib. (2016). Testing the IRAP: Exploring the reliability and fakability of an idiographic approach to interpersonal attitudes. The Psychological Record, 66, 153-163. </t>
+  </si>
+  <si>
+    <t>Henklain, Haydu, Carmo, Muniz, &amp; Perez. (2019) Expanding the evidence of content validity for the Teacher Behavior Checklist using the IRAP: TBC’s content validity using the IRAP. The Psychological Record. 10.1007/s40732-019-00334-9</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Drake, C. E., Kramer, S., Sain, T., Swiatek, R., Kohn, K., &amp; Murphy, M. (2015). Exploring the reliability and convergent validity of implicit racial evaluations. </t>
+      <t xml:space="preserve">Drake, Kramer, Sain, Swiatek, Kohn, &amp; Murphy. (2015). Exploring the reliability and convergent validity of implicit racial evaluations. </t>
     </r>
     <r>
       <rPr>
@@ -600,1134 +1727,61 @@
     </r>
   </si>
   <si>
-    <t>Similar IRAPs were employed in Barnes-Holmes et al. (2010) The Implicit Relational Assessment Procedure: Exploring the impact of private versus public contexts and the response latency criterion on pro-white and anti-black stereotyping among white Irish individuals; Power et al. (2017) Exploring Racial Bias in a European Country with a Recent History of Immigration of Black Africans; Power et al. (2017) Combining the implicit Relational Assessment Procedure and the recording of event related potentials in the analysis of racial bias: A preliminary study; and Dunne et al. (2018) Faking a race IRAP effect in the context of single versus multiple label stimuli</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Stimuli identical to those used in Nicholson et al.'s Disgust Sensitivity IRAP and were taken from the Images taken from the International Affective Picture System: "The picture numbers from the IAPs were as follows: 1111, 1205, 1280, 3250, 9300, 9373, 9405, 1440, 1463, 1710, 1750, 5201, 5250, 5731, 5760. The 16th pictorial stimulus was a photograph of Hitler which aimed to evoke socio-moral disgust."</t>
-  </si>
-  <si>
-    <t>Accuracy feedback</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Convenience sample of undergraduate students at an Irish university. No compensation was offered.</t>
-  </si>
-  <si>
-    <t>Convenience sample of undergraduate psychology students at an English university. No compensation was offered.</t>
-  </si>
-  <si>
-    <t>Similar</t>
-  </si>
-  <si>
-    <t>Different</t>
-  </si>
-  <si>
-    <t>Now please answer AS IF you associate yourself with death and others with life</t>
-  </si>
-  <si>
-    <t>Now please answer AS IF you associate yourself with life and others with death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myself	
-My    	
-Mine  	
-I     	
-Self  	
-Me    	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Them  	
-They  	
-Theirs	
-Their 	
-Other 	
-Others	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death   	
-Die     	
-Funeral 	
-Lifeless	
-Deceased	
-Dead    	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alive    
-Live     
-Thrive   
-Survive  
-Breathing
-Living   </t>
-  </si>
-  <si>
-    <t>enjoyable
-exciting
-great
-lovely
-pleasant
-satisfying</t>
-  </si>
-  <si>
-    <t>awful
-distressing
-horrible
-hurtful
-painful
-upsetting</t>
-  </si>
-  <si>
-    <t>calm
-comfort
-escape
-peaceful
-relief
-soothing</t>
-  </si>
-  <si>
-    <t>I Need to Look Away
-I Need to Escape
-I Worry I'll Get Sick
-I Cannot Cope
-I Worry I Might Faint
-I Fear Contamination
-I Fear Losing Control
-I Cannot Tolerate It</t>
-  </si>
-  <si>
-    <t>I Can Look, I Can Stay
-I Know I'll be Fine
-I Can Tolerate It
-I'm Sure I'll be OK
-I Have No Fear
-I Feel In Control
-I Can Cope With This</t>
-  </si>
-  <si>
-    <t>caring
-friend
-good
-nice
-safe
-trustworthy</t>
-  </si>
-  <si>
-    <t>bad
-cruel
-dangerous
-enemy
-hateful
-selfish</t>
-  </si>
-  <si>
-    <t>forceful
-logical
-dominant
-forceful
-logical
-dominant</t>
-  </si>
-  <si>
-    <t>gentle
-emotional
-sensitive
-gentle
-emotional
-sensitive</t>
-  </si>
-  <si>
-    <t>boss
-chief
-director
-head
-leader
-manager</t>
-  </si>
-  <si>
-    <t>aide
-assistant
-follower
-helper
-subordinate
-supporter</t>
-  </si>
-  <si>
-    <t>females
-women</t>
-  </si>
-  <si>
-    <t>males
-men</t>
-  </si>
-  <si>
-    <t>Triangle
-Circle
-Square
-Triangle
-Circle
-Square</t>
-  </si>
-  <si>
-    <t>Green
-Red
-Blue
-Green
-Red
-Blue</t>
-  </si>
-  <si>
-    <t>balanced
-competent
-good
-healthy
-normal
-reliable
-safe
-trustworthy</t>
-  </si>
-  <si>
-    <t>crazy
-damaged
-defective
-distracted
-lazy
-sick
-stupid
-weak</t>
-  </si>
-  <si>
-    <t>angry
-crazy
-damaged
-dangerous
-defective
-different
-sick
-unstable</t>
-  </si>
-  <si>
-    <t>crazy
-damaged
-dangerous
-defective
-different
-sick
-unstable
-weak</t>
-  </si>
-  <si>
-    <t>Arousing
-Arousing
-Erotic
-Erotic
-Attractive
-Attractive
-Sensual
-Sensual
-Exciting
-Exciting</t>
-  </si>
-  <si>
-    <t>Awful
-Awful
-Repulsive
-Repulsive
-Repelling
-Repelling
-Repugnant
-Repugnant
-Repellent
-Repellent</t>
-  </si>
-  <si>
-    <t>Sexuality IRAP assessing sexualisation of men vs women</t>
-  </si>
-  <si>
-    <t>Identical to Sexuality (1) but collected in a different sample.</t>
-  </si>
-  <si>
-    <t>Personality IRAP intended to assess Agreeableness</t>
-  </si>
-  <si>
-    <t>Personality IRAP intended to assess Conscientiousness</t>
-  </si>
-  <si>
-    <t>Personality IRAP intended to assess Extraversion</t>
-  </si>
-  <si>
-    <t>Personality IRAP intended to assess Neuroticism</t>
-  </si>
-  <si>
-    <t>Personality IRAP intended to assess Openness</t>
-  </si>
-  <si>
-    <t>deserving
-good
-motivated
-smart
-superior
-worthy</t>
-  </si>
-  <si>
-    <t>bad
-deficient
-inadequate
-inferior
-lazy
-stupid</t>
-  </si>
-  <si>
-    <t>compassionate
-correct
-good
-loving
-safe
-truthful</t>
-  </si>
-  <si>
-    <t>cruel
-flawed
-bad
-hateful
-dangerous
-dishonest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">friendly
-kind
-polite
-safe
-friendly
-kind
-polite
-safe
-</t>
-  </si>
-  <si>
-    <t>aggressive
-dangerous
-painful
-rude
-aggressive
-dangerous
-painful
-rude</t>
-  </si>
-  <si>
-    <t>adventurous
-curious
-attracted to NEW things
-open to NEW ideas
-creative
-interested in VARIETY</t>
-  </si>
-  <si>
-    <t>traditional
-set in my ways
-attracted to the FAMILIAR
-conservative
-cautious
-interested in ROUTINE</t>
-  </si>
-  <si>
-    <t>I feel HAPPY
-I feel RELAXED
-I am CALM
-I have POSITIVE thoughts
-I feel COMFORTABLE
-I ENJOY it</t>
-  </si>
-  <si>
-    <t>I feel SAD
-I feel NERVOUS
-I am IRRITABLE
-I have NEGATIVE thoughts
-I feel STRESSED OUT
-I HATE it</t>
-  </si>
-  <si>
-    <t>I am COMFORTABLE
-I am WHERE I WANT to be
-I have FUN
-I ENJOY it
-I am IN MY ELEMENT
-I am GLAD</t>
-  </si>
-  <si>
-    <t>I feel OUT OF PLACE
-I DON'T KNOW what to do
-I feel ANXIOUS
-I find it DIFFICULT
-I WANT it to CHANGE
-I WANT to be SOMEWHERE ELSE</t>
-  </si>
-  <si>
-    <t>ambitious
-efficient
-energetic
-motivated
-organized
-reliable</t>
-  </si>
-  <si>
-    <t>absent-minded
-bored
-careless
-distracted
-impulsive
-lazy</t>
-  </si>
-  <si>
-    <t>caring
-considerate
-cooperative
-generous
-trusting
-warm</t>
-  </si>
-  <si>
-    <t>aggressive
-cold
-competitive
-detached
-guarded
-suspicious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic education in Uganda
-Extreme poverty in Afghanistan
-Safe drinking water in Bangladesh
-Basic sanitation in Pakistan
-Vaccinations in Nigeria
-Starving people in Zimbabwe   </t>
-  </si>
-  <si>
-    <t>Basic education in Belgium
-Extreme poverty in New Zealand
-Safe drinking water in Sweden
-Basic sanitation in Denmark
-Vaccinations in Norway
-Starving people in Canada</t>
-  </si>
-  <si>
-    <t>are poor
-are hungry
-are sick
-are weak
-are uneducated
-are jobless</t>
-  </si>
-  <si>
-    <t>are well paid
-are well fed
-are educated
-are healthy
-are employed
-are safe</t>
-  </si>
-  <si>
-    <t>corruption in Nigeria
-exploitation in Bangladesh
-discrimination in Pakistan
-violence in Haiti
-hunger in Zimbabwe
-poverty in Uganda</t>
-  </si>
-  <si>
-    <t>corruption in New Zealand
-exploitation in Canada
-discrimination in Sweden
-violence in Denmark
-hunger in Belgium
-poverty in Switzerland</t>
-  </si>
-  <si>
-    <t>Justice
-Fairness
-Freedom
-Physical Safety
-Health
-Equality</t>
-  </si>
-  <si>
-    <t>Corruption
-Exploitation
-Discrimination
-Violence
-Hunger
-Poverty</t>
-  </si>
-  <si>
-    <t>excellent
-friend
-good
-safe
-trustworthy
-wonderful</t>
-  </si>
-  <si>
-    <t>awful
-bad
-disaster
-enemy
-horrible
-terrible</t>
-  </si>
-  <si>
-    <t>active
-attractive
-desirable
-disciplined
-good
-healthy</t>
-  </si>
-  <si>
-    <t>IRAP assessing life-death self-other relating</t>
-  </si>
-  <si>
-    <t>IRAP assessing evaluations of living vs dying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identical to that used in Hussey, Barnes-Holmes, &amp; Booth (2016) Individuals with current suicidal ideation demonstrate implicit 'fearlessness of death'. </t>
-  </si>
-  <si>
-    <t>IRAP assessing evaluations of life vs death</t>
-  </si>
-  <si>
-    <t>IRAP assessing evaluations of my death vs others' deaths</t>
-  </si>
-  <si>
-    <t>[Participant generated name of friend]</t>
-  </si>
-  <si>
-    <t>[Participant generated name of enemy]</t>
-  </si>
-  <si>
-    <t>Spiders2.jpg
-Snakes.jpg
-Rat1.jpg
-Hand.jpg
-Mouth.jpg
-Toilet1.jpg
-Vomit.jpg
-adolf-hitler.jpg</t>
-  </si>
-  <si>
-    <t>Bunny2.jpg
-Kittens.jpg
-Nature1.jpg
-Puppy.jpg
-Seal.jpg
-Nature2.jpg
-Nature3.jpg
-Nature4.jpg</t>
-  </si>
-  <si>
-    <t>I care about
-I worry about
-I am concerned about</t>
-  </si>
-  <si>
-    <t>I don't care about
-I don't worry about
-I am not concerned about</t>
-  </si>
-  <si>
-    <t>People in New Zealand
-People in Canada
-People in Sweden
-People in Denmark
-People in Norway
-People in Belgium</t>
-  </si>
-  <si>
-    <t>People in Uganda
-People in Afghanistan
-People in Bangladesh
-People in Pakistan
-People in Nigeria
-People in Zimbabwe</t>
-  </si>
-  <si>
-    <t>I care about</t>
-  </si>
-  <si>
-    <t>I try to ignore</t>
-  </si>
-  <si>
-    <t>New Zealand is known for
-Canada is known for
-Sweden is known for
-Denmark is known for
-Norway is known for
-Belgium is known for</t>
-  </si>
-  <si>
-    <t>Uganda is known for
-Afghanistan is known for
-Bangladesh is known for
-Pakistan is known for
-Nigeria is known for
-Zimbabwe is known for</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>IRAP assessing what developed vs developing countries are known for</t>
-  </si>
-  <si>
-    <t>IRAP assessing stereotypes about developed vs developing countries</t>
-  </si>
-  <si>
-    <t>IRAP assessing caring vs not caring about positive and negative issues in developed vs developing countries</t>
-  </si>
-  <si>
-    <t>IRAP assessing caring about vs ignoring negative issues in developed vs developing countries</t>
-  </si>
-  <si>
-    <t>IRAP assessing evaluations of Hilary Clinton vs Donald Trump</t>
-  </si>
-  <si>
-    <t>IRAP assessing evaluations of skinny vs fat</t>
-  </si>
-  <si>
-    <t>IRAP assessing gender personality stereotypes</t>
-  </si>
-  <si>
-    <t>IRAP assessing gender professional stereotypes</t>
-  </si>
-  <si>
-    <t>Please respond as if men have more stereotypically masculine traits and women more stereotypically feminine traits</t>
-  </si>
-  <si>
-    <t>Please respond as if men have more stereotypically feminine traits and women more stereotypically masculine traits</t>
-  </si>
-  <si>
-    <t>Men are</t>
-  </si>
-  <si>
-    <t>Women are</t>
-  </si>
-  <si>
-    <t>Affectionate
-Gentle
-Nurturing
-Sensitive
-Affectionate
-Gentle
-Nurturing
-Sensitive</t>
-  </si>
-  <si>
-    <t>Charismatic
-Competitive
-Decisive
-Witty
-Charismatic
-Competitive
-Decisive
-Witty</t>
-  </si>
-  <si>
-    <t>IRAP assessing positive gender stereotypes</t>
-  </si>
-  <si>
-    <t>IRAP assessing negative gender stereotypes</t>
-  </si>
-  <si>
-    <t>Aggressive
-Unemotional
-Insensitive
-Arrogant
-Aggressive
-Unemotional
-Insensitive
-Arrogant</t>
-  </si>
-  <si>
-    <t>Bitchy
-Insecure
-Bossy
-Helpless
-Bitchy
-Insecure
-Bossy
-Helpless</t>
-  </si>
-  <si>
-    <t>This IRAP was also used in O'Shea et al. (2016) Measuring implicit attitudes: A positive framing bias flaw in the Implicit Relational Assessment Procedure (IRAP)</t>
-  </si>
-  <si>
-    <t>Hughes, Hussey, Corrigan, Jolie, Murphy, &amp; Barnes-Holmes. (2016) Faking revisited: Exerting strategic control over performance on the Implicit Relational Assessment Procedure: IRAP faking</t>
-  </si>
-  <si>
-    <t>IRAP is identical to that used in Timmins, Barnes-Holmes &amp; Cullen (2016) Measuring implicit sexual response biases to nude male and female pictures in androphilic and gynephilic men.</t>
-  </si>
-  <si>
-    <t>De Schryver, Hussey, De Neve, Cartwright, &amp; Barnes-Holmes (2017) The PIIRAP: An alternative scoring algorithm for the IRAP using a probabilistic semiparametric effect size measure
-See also Cartwright (2019) Automatic Gender Binary Beliefs and their Role in Gender Inequality [PhD thesis]</t>
-  </si>
-  <si>
-    <t>Similar to De Schryver, Hussey, De Neve, Cartwright, &amp; Barnes-Holmes (2017) The PIIRAP: An alternative scoring algorithm for the IRAP using a probabilistic semiparametric effect size measure, but using negative stereotypes.
-See also Cartwright (2019) Automatic Gender Binary Beliefs and their Role in Gender Inequality [PhD thesis]</t>
-  </si>
-  <si>
-    <t>IRAP is identical to that used in Timmins, Barnes-Holmes &amp; Cullen (2016) Measuring implicit sexual response biases to nude male and female pictures in androphilic and gynephilic men and Hughes, Hussey, Corrigan, Jolie, Murphy, &amp; Barnes-Holmes. (2016) Faking revisited: Exerting strategic control over performance on the Implicit Relational Assessment Procedure: IRAP faking</t>
-  </si>
-  <si>
-    <t>Finn, Barnes-Holmes, Hussey, &amp; Graddy (2016) Exploring the Behavioral Dynamics of the Implicit Relational Assessment Procedure: The Impact of Three Types of Introductory Rules</t>
-  </si>
-  <si>
-    <t>IRAP examining the relating of the categories of shapes and colors to exemplars of each</t>
-  </si>
-  <si>
-    <t>IRAP assessing stigma towards ADHD after reading a vignette</t>
-  </si>
-  <si>
-    <t>IRAP assessing stigma towards PTSD after reading a vignette</t>
-  </si>
-  <si>
-    <t>IRAP assessing stigma towards schozophrenia after reading a vignette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRAP involving relating positive vs. negative words with posiitve vs. negative descriptors </t>
-  </si>
-  <si>
-    <t>IRAP assessing evaluations of two neutral non-words</t>
-  </si>
-  <si>
-    <t>Disgust propensity IRAP</t>
-  </si>
-  <si>
-    <t>Disgust sensitivity IRAP</t>
-  </si>
-  <si>
-    <t>IRAP identical to the disgust sensitivity IRAP used in Nicholson, E., &amp; Barnes-Holmes, D. (2012). Developing an implicit measure of disgust propensity and disgust sensitivity</t>
-  </si>
-  <si>
-    <t>IRAP assessing evaluations of Lincoln vs Hitler</t>
-  </si>
-  <si>
-    <t>CUG</t>
-  </si>
-  <si>
-    <t>VEC</t>
-  </si>
-  <si>
-    <t>IRAP assessing racial bias towards Black people vs White people</t>
-  </si>
-  <si>
-    <t>IRAP assessing religious bias towards christians vs muslims</t>
-  </si>
-  <si>
-    <t>IRAP assessing evaluations of rich vs poor people</t>
-  </si>
-  <si>
-    <t>Exciting
-Great
-Lovely
-Pleasant
-Satisfying
-Enjoyable</t>
-  </si>
-  <si>
-    <t>Distressing
-Awful
-Hurtful
-Horrible
-Painful
-Upsetting</t>
-  </si>
-  <si>
-    <t>CUG is negative and VEC is positive
-/
-VEC is negative and CUG is positive
-[counterbalanced between participants]</t>
-  </si>
-  <si>
-    <t>CUG is positive and VEC is negative
-/
-VEC is positive and CUG is negative
-[counterbalanced between participants]</t>
-  </si>
-  <si>
-    <t>2014-2015</t>
-  </si>
-  <si>
-    <t>2013-2014</t>
-  </si>
-  <si>
-    <t>2013-2015</t>
-  </si>
-  <si>
-    <t>2013-2016</t>
-  </si>
-  <si>
-    <t>2013-2017</t>
-  </si>
-  <si>
-    <t>Convenience sample of undergraduate students at a Belgian university. Participants were paid either €5or course credit.</t>
-  </si>
-  <si>
-    <t>English translation:
-bad
-unpleasant
-nasty
-negative
-horrible
-terrible
-Original Dutch:
-SLECHT
-ONAANGENAAM
-AKELIG
-NEGATIEF
-AFSCHUWELIJK
-VRESELIJK</t>
-  </si>
-  <si>
-    <t>English translation:
-good
-pleasant
-fun
-positive
-fantastic
-excellent
-Original Dutch:
-GOED
-AANGENAAM
-LEUK
-POSITIEF
-FANTASTISCH
-UITSTEKEND</t>
-  </si>
-  <si>
-    <t>English translation:
-Hitler
-pedophile
-cancer
-incest
-murder
-suicide
-Original Dutch:
-PEDOFIEL
-KANKER
-INCEST
-MOORD
-HITLER
-ZELFMOORD</t>
-  </si>
-  <si>
-    <t>English translation:
-happy
-friendship
-joy
-peace
-love
-pleasure
-Original Dutch:
-GELUKKIG
-VRIENDSCHAP
-BLIJDSCHAP
-LIEFDE
-VREDE
-PLEZIER</t>
-  </si>
-  <si>
-    <t>English translation:
-I find it horrible
-I think it is disgusting
-It looks nasty
-I feel revolted
-It makes me sick
-I am repulsed
-Original Dutch:
-IK VIND HET VRESELIJK
-IK VIND DAT HET WALGELIJK IS
-HET ZIET ER VIES UIT
-IK VOEL ME GEDEGOUTEERD
-DAT MAAKT ME MISSELIJK
-IK BEN GESCHOKT</t>
-  </si>
-  <si>
-    <t>English translation:
-I think it’s pleasant
-I find it nice
-It’s good
-It makes me feel happy
-It looks nice
-It makes me feel great
-Original Dutch:
-IK VIND HET PLEZIERIG
-IK VIND HET FIJN
-HET IS GOED
-HET MAAKT ME GELUKKIG
-HET ZIET ER GOED UIT
-HET GEEFT ME EEN ZALIG GEVOEL</t>
-  </si>
-  <si>
-    <t>IRAP was a direct translation of the disgust sensitivity IRAP used in Nicholson, E., &amp; Barnes-Holmes, D. (2012). Developing an implicit measure of disgust propensity and disgust sensitivity</t>
-  </si>
-  <si>
-    <t>Sample 1</t>
-  </si>
-  <si>
-    <t>Sample 2</t>
-  </si>
-  <si>
-    <t>Target 1</t>
-  </si>
-  <si>
-    <t>Target 2</t>
-  </si>
-  <si>
-    <t>Gender stereotypes (1)</t>
-  </si>
-  <si>
-    <t>Gender stereotypes (2)</t>
-  </si>
-  <si>
-    <t>Gender stereotypes (3)</t>
-  </si>
-  <si>
-    <t>Gender stereotypes (4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convenience sample of undergraduate students at an Irish university who identified as both male and either gay or straight. No compensation was offered. </t>
-  </si>
-  <si>
-    <t>Hughes, Hussey, Corrigan, Jolie, Murphy, &amp; Barnes-Holmes. (2016) Faking revisited: Exerting strategic control over performance on the Implicit Relational Assessment Procedure: IRAP faking.</t>
-  </si>
-  <si>
-    <t>See "image stimuli" folder for images.  Note that only the baseline IRAP are included (i.e., prior to faking instructions).</t>
-  </si>
-  <si>
-    <t>Images taken from the International Affective Picture System (IAPS: Lang, Bradley, &amp; Cuthbert, 1997), which is proprietary and thereore cannot be distriuted here. Male picture numbers: 4460, 4500, 4534, 4550, 4561; female picture numbers: 4141, 4142, 4210, 4240, 4235.
-Note that only the baseline IRAP are included (i.e., prior to faking instructions).</t>
-  </si>
-  <si>
-    <t>Note that stimuli were presented in Dutch. English translations are presented here.
-Note that only the baseline IRAP are included (i.e., prior to faking instructions).</t>
-  </si>
-  <si>
-    <t>Images taken from the International Affective Picture System and found online, see Hughes, Hussey, Corrigan, Jolie, Murphy &amp; Barnes-Holmes (2016). 
-Note that only the baseline IRAP are included (i.e., prior to faking instructions).</t>
-  </si>
-  <si>
-    <t>bad
-ill
-lazy
-sloppy
-disgusting
-ugly</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Abraham Lincoln
-[image of Lincoln]</t>
-  </si>
-  <si>
-    <t>Adolf Hitler
-[image of Hitler]</t>
-  </si>
-  <si>
-    <t>Conditions utilized either names or images; conditions using images have not been published. See "image stimuli" folder for images</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>is not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is </t>
-  </si>
-  <si>
-    <t>IRAP assessing evaluations of a named personal friend vs a named personal enemy, using personalised stimuli.</t>
-  </si>
-  <si>
-    <t>English translation: 
-Bad professor
-Original Portugese:
-Mau Professor</t>
-  </si>
-  <si>
-    <t>English translation: 
-Good professor
-Original Portugese:
-Bom Professor</t>
-  </si>
-  <si>
-    <t>Professor competence</t>
-  </si>
-  <si>
-    <t>English translation: 
-Respond as if good professors have positive characteristics and bad professors have negative characteristics. Try to avoid the red X.
-Original Portugese:
-Responda como se Bom Professor tivesse caracterÌsticas positivas e Mau Professor tivesse caracterÌsticas negativas. Tente evitar o X vermelho.</t>
-  </si>
-  <si>
-    <t>English translation: 
-Respond as if bad professors have positive characteristics and good professors have negative characteristics. Try to avoid the red X.
-Original Portugese:
-Responda como se Mau Professor tivesse caracterÌsticas positivas e Bom Professor tivesse caracterÌsticas negativas. Tente evitar o X vermelho.</t>
-  </si>
-  <si>
-    <t>English translation: 
-Inaccessible
-Ineffective Communicator
-Sad
-Unaware of Content
-Unprepared
-Accommodated
-Original Portugese:
-InacessÌvel
-Comunicador Ineficaz
-Desanimado
-Desconhece o Conte˙do
-Despreparado
-Acomodado</t>
-  </si>
-  <si>
-    <t>English translation: 
-Accessible
-Effective Communicator
-enthusiastic
-Master the Content
-Prepared
-Search to improve yourself
-Original Portugese:
-AcessÌvel
-Comunicador Eficaz
-Entusiasmado
-Domina o Conte˙do
-Preparado
-Busca AperfeiÁoar-se</t>
-  </si>
-  <si>
-    <t>Convenience sample of undergraduate students at a Brazillian university. No remuneration was offered.</t>
-  </si>
-  <si>
-    <t>Henklain, Marcelo H. O.; Haydu, Verônica Bender; Carmo, João S.; Muniz, Monalisa; Perez, William F. (2019) Expanding the evidence of content validity for the Teacher Behavior Checklist using the IRAP: TBC’s content validity using the IRAP. The Psychological Record. 10.1007/s40732-019-00334-9</t>
-  </si>
-  <si>
-    <t>Note that stimuli were presented in Portugese. English translations are presented here.</t>
-  </si>
-  <si>
-    <t>IRAP assessing traits of good and bad professors</t>
-  </si>
-  <si>
-    <t>Self-competence (want to be)</t>
-  </si>
-  <si>
-    <t>Self-competence (am)</t>
-  </si>
-  <si>
-    <t>IRAP assessing perceived self competence (I am)</t>
-  </si>
-  <si>
-    <t>IRAP assessing desired self competence (I want to be)</t>
-  </si>
-  <si>
-    <t>van der Kaap-Deeder, Jolene; De Houwer, Jan; Hughes, Sean; Spruyt, Adriaan; Vansteenkiste, Maarten (2018) The development and validation of an implicit measure of competence need satisfaction. Motivation and Emotion. 10.1007/s11031-018-9685-3</t>
-  </si>
-  <si>
-    <t>Similarities to IRAP employed by Remue et al. (2013)</t>
-  </si>
-  <si>
-    <t>Note that stimuli were presented in Dutch. English translations are presented here.</t>
-  </si>
-  <si>
-    <t>English translation:
-Please respond as if I am competent and I am not incompetent
-Original Dutch:
-Gelieve te antwoorden ALSOF IK BEN competent en IK BEN NIET incompetent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English translation:
-Please respond as if I am incompetent and I am not competent
-Original Dutch:
-Gelieve te antwoorden ALSOF IK BEN incompetent en IK BEN NIET competent </t>
-  </si>
-  <si>
-    <t>English translation:
-Failed
-Incompetent
-Failed
-Ignorant
-Incompetent
-Dom
-Original Dutch:
-Mislukt
-Onbekwaam
-Gefaald
-Onkundig
-Incompetent
-Dom</t>
-  </si>
-  <si>
-    <t>English translation:
-Skilled
-Successful
-Capable
-Skilled
-Competent
-Skilled
-Original Dutch:
-Bekwaam
-Succesvol
-Capabel
-Kundig
-Competent
-Vaardig</t>
-  </si>
-  <si>
-    <t>English translation:
-I am
-Original Dutch:
-Ik ben</t>
-  </si>
-  <si>
-    <t>English translation:
-I am not
-Original Dutch:
-Ik ben niet</t>
-  </si>
-  <si>
-    <t>English translation:
-I desire
-Original Dutch:
-Ik verlang</t>
-  </si>
-  <si>
-    <t>English translation:
-I don't desire
-Original Dutch:
-Ik verlang niet</t>
-  </si>
-  <si>
-    <t>English translation:
-Please respond as if I desire to be competent and I do not desire to be incompetent
-Original Dutch:
-Gelieve te antwoorden ALSOF IK VERLANG competent te zijn en IK VERLANG NIET incompetent te zijn</t>
-  </si>
-  <si>
-    <t>English translation:
-Please respond as if I desire to be incompetent and I do not desire to be competent
-Original Dutch:
-Gelieve te antwoorden ALSOF IK VERLANG incompetent te zijn en IK VERLANG NIET competent te zijn</t>
-  </si>
-  <si>
-    <t>A sample of convenience from the participant pool (both students and non-students). Participants were paid €10.</t>
+    <t>van der Kaap-Deeder; De Houwer, Hughes, Spruyt, Vansteenkiste (2018) The development and validation of an implicit measure of competence need satisfaction. Motivation and Emotion. 10.1007/s11031-018-9685-3</t>
+  </si>
+  <si>
+    <t>Data published abbreviated</t>
+  </si>
+  <si>
+    <t>Hussey, Daly, &amp; Barnes-Holmes (2015)</t>
+  </si>
+  <si>
+    <t>Hughes, Hussey, Corrigan, Jolie, Murphy, &amp; Barnes-Holmes (2016)</t>
+  </si>
+  <si>
+    <t>Drake, Seymour, &amp; Habib (2016)</t>
+  </si>
+  <si>
+    <t>Drake, Primeaux, &amp; Thomas (2018)</t>
+  </si>
+  <si>
+    <t>De Schryver, Hussey, De Neve, Cartwright, &amp; Barnes-Holmes (2017)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Drake, Sain, &amp; Thompson. (2022). Comparing a nomothetic and idiographic approach to implicit social cognition. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Preprint.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> https://psyarxiv.com/wn9b3/</t>
+    </r>
+  </si>
+  <si>
+    <t>Henklain, Haydu, Carmo, Muniz, &amp; Perez (2019)</t>
+  </si>
+  <si>
+    <t>Drake, Kramer, Sain, Swiatek, Kohn, &amp; Murphy (2015)</t>
+  </si>
+  <si>
+    <t>van der Kaap-Deeder; De Houwer, Hughes, Spruyt, Vansteenkiste (2018)</t>
+  </si>
+  <si>
+    <t>Finn, Barnes-Holmes, Hussey, &amp; Graddy (2016)</t>
   </si>
 </sst>
 </file>
@@ -2514,11 +2568,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2540,18 +2594,18 @@
     <col min="18" max="18" width="21" style="1" customWidth="1"/>
     <col min="19" max="19" width="41.33203125" customWidth="1"/>
     <col min="20" max="20" width="23.33203125" style="8" customWidth="1"/>
-    <col min="21" max="21" width="46" style="5" customWidth="1"/>
-    <col min="22" max="22" width="44" style="5" customWidth="1"/>
-    <col min="23" max="23" width="36.33203125" style="9" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="9"/>
+    <col min="21" max="22" width="46" style="5" customWidth="1"/>
+    <col min="23" max="23" width="44" style="5" customWidth="1"/>
+    <col min="24" max="24" width="36.33203125" style="9" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>18</v>
@@ -2560,16 +2614,16 @@
         <v>19</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>52</v>
@@ -2587,7 +2641,7 @@
         <v>134</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>20</v>
@@ -2611,18 +2665,21 @@
         <v>158</v>
       </c>
       <c r="V1" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -2637,16 +2694,16 @@
         <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>15</v>
@@ -2658,7 +2715,7 @@
         <v>3</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O2" s="16" t="s">
         <v>16</v>
@@ -2684,16 +2741,19 @@
       <c r="V2" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>46</v>
@@ -2708,10 +2768,10 @@
         <v>39</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>135</v>
@@ -2729,7 +2789,7 @@
         <v>3</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>17</v>
@@ -2755,16 +2815,19 @@
       <c r="V3" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X3" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>60</v>
@@ -2773,16 +2836,16 @@
         <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>135</v>
@@ -2800,7 +2863,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O4" s="15" t="s">
         <v>17</v>
@@ -2815,10 +2878,10 @@
         <v>160</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>163</v>
@@ -2826,16 +2889,19 @@
       <c r="V4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X4" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>61</v>
@@ -2844,16 +2910,16 @@
         <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>135</v>
@@ -2871,7 +2937,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O5" s="15" t="s">
         <v>17</v>
@@ -2886,10 +2952,10 @@
         <v>160</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>163</v>
@@ -2897,16 +2963,19 @@
       <c r="V5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X5" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>54</v>
@@ -2915,16 +2984,16 @@
         <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>135</v>
@@ -2942,7 +3011,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>17</v>
@@ -2957,10 +3026,10 @@
         <v>160</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>163</v>
@@ -2968,16 +3037,19 @@
       <c r="V6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="W6" s="5" t="s">
+      <c r="W6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X6" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>57</v>
@@ -2986,16 +3058,16 @@
         <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>135</v>
@@ -3013,7 +3085,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O7" s="15" t="s">
         <v>17</v>
@@ -3028,10 +3100,10 @@
         <v>160</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>163</v>
@@ -3039,16 +3111,19 @@
       <c r="V7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="W7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X7" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -3063,10 +3138,10 @@
         <v>29</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>135</v>
@@ -3084,7 +3159,7 @@
         <v>3</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>17</v>
@@ -3108,18 +3183,21 @@
         <v>163</v>
       </c>
       <c r="V8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W8" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="X8" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
@@ -3134,10 +3212,10 @@
         <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>135</v>
@@ -3155,7 +3233,7 @@
         <v>3</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>17</v>
@@ -3179,18 +3257,21 @@
         <v>163</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="W9" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="X9" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -3205,10 +3286,10 @@
         <v>32</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>135</v>
@@ -3226,7 +3307,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O10" s="16" t="s">
         <v>17</v>
@@ -3241,7 +3322,7 @@
         <v>160</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T10" s="8">
         <v>2013</v>
@@ -3250,42 +3331,45 @@
         <v>166</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="W10" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X10" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="I11" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>56</v>
@@ -3297,7 +3381,7 @@
         <v>3</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O11" s="16" t="s">
         <v>17</v>
@@ -3312,7 +3396,7 @@
         <v>160</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T11" s="8">
         <v>2013</v>
@@ -3321,18 +3405,21 @@
         <v>166</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="W11" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X11" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="187" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="187" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>149</v>
@@ -3341,16 +3428,16 @@
         <v>150</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>135</v>
@@ -3368,7 +3455,7 @@
         <v>3</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O12" s="16" t="s">
         <v>17</v>
@@ -3383,7 +3470,7 @@
         <v>160</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T12" s="8">
         <v>2014</v>
@@ -3392,18 +3479,21 @@
         <v>163</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>294</v>
+        <v>163</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>175</v>
+        <v>291</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="272" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>67</v>
@@ -3412,10 +3502,10 @@
         <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>126</v>
@@ -3439,7 +3529,7 @@
         <v>3</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O13" s="16" t="s">
         <v>17</v>
@@ -3454,27 +3544,30 @@
         <v>160</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="T13" s="8">
         <v>2013</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>317</v>
+        <v>373</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>331</v>
+        <v>314</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -3483,16 +3576,16 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>135</v>
@@ -3510,7 +3603,7 @@
         <v>3</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O14" s="16" t="s">
         <v>16</v>
@@ -3531,21 +3624,24 @@
         <v>2013</v>
       </c>
       <c r="U14" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="W14" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="V14" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="W14" s="5" t="s">
+      <c r="X14" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>69</v>
@@ -3554,16 +3650,16 @@
         <v>70</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>135</v>
@@ -3581,7 +3677,7 @@
         <v>3</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O15" s="16" t="s">
         <v>16</v>
@@ -3602,21 +3698,24 @@
         <v>162</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>170</v>
+        <v>366</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="W15" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="X15" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>48</v>
@@ -3631,10 +3730,10 @@
         <v>41</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>135</v>
@@ -3652,7 +3751,7 @@
         <v>3</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O16" s="16" t="s">
         <v>16</v>
@@ -3678,34 +3777,37 @@
       <c r="V16" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="W16" s="5" t="s">
+      <c r="W16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X16" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" ht="136" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="G17" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>274</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>135</v>
@@ -3723,7 +3825,7 @@
         <v>3</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O17" s="21" t="s">
         <v>17</v>
@@ -3738,45 +3840,48 @@
         <v>160</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="W17" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X17" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="153" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" ht="153" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>135</v>
@@ -3794,7 +3899,7 @@
         <v>3</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O18" s="16" t="s">
         <v>17</v>
@@ -3809,7 +3914,7 @@
         <v>160</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T18" s="8">
         <v>2015</v>
@@ -3818,18 +3923,21 @@
         <v>163</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="W18" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="X18" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -3838,16 +3946,16 @@
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>135</v>
@@ -3865,7 +3973,7 @@
         <v>3</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O19" s="16" t="s">
         <v>16</v>
@@ -3886,39 +3994,42 @@
         <v>2013</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="V19" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="V19" s="14" t="s">
         <v>163</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>337</v>
+        <v>163</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>135</v>
@@ -3936,7 +4047,7 @@
         <v>3</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O20" s="16" t="s">
         <v>17</v>
@@ -3960,18 +4071,21 @@
         <v>163</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="W20" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="X20" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>75</v>
@@ -3986,10 +4100,10 @@
         <v>78</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>135</v>
@@ -4007,7 +4121,7 @@
         <v>3</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O21" s="15" t="s">
         <v>16</v>
@@ -4033,16 +4147,19 @@
       <c r="V21" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="W21" s="5" t="s">
+      <c r="W21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X21" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>81</v>
@@ -4057,10 +4174,10 @@
         <v>80</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I22" s="18" t="s">
         <v>135</v>
@@ -4078,7 +4195,7 @@
         <v>3</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O22" s="15" t="s">
         <v>16</v>
@@ -4104,16 +4221,19 @@
       <c r="V22" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="W22" s="5" t="s">
+      <c r="W22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X22" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>83</v>
@@ -4128,10 +4248,10 @@
         <v>86</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I23" s="18" t="s">
         <v>135</v>
@@ -4149,7 +4269,7 @@
         <v>3</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O23" s="15" t="s">
         <v>16</v>
@@ -4175,16 +4295,19 @@
       <c r="V23" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="W23" s="5" t="s">
+      <c r="W23" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X23" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>93</v>
@@ -4199,10 +4322,10 @@
         <v>88</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>135</v>
@@ -4220,7 +4343,7 @@
         <v>3</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O24" s="15" t="s">
         <v>16</v>
@@ -4246,16 +4369,19 @@
       <c r="V24" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="W24" s="5" t="s">
+      <c r="W24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X24" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>91</v>
@@ -4270,10 +4396,10 @@
         <v>90</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I25" s="18" t="s">
         <v>135</v>
@@ -4291,7 +4417,7 @@
         <v>3</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O25" s="15" t="s">
         <v>16</v>
@@ -4317,34 +4443,37 @@
       <c r="V25" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="W25" s="5" t="s">
+      <c r="W25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X25" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="11" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" s="11" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>135</v>
@@ -4362,7 +4491,7 @@
         <v>3</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O26" s="16" t="s">
         <v>16</v>
@@ -4377,27 +4506,30 @@
         <v>160</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="T26" s="8">
         <v>2017</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="V26" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>351</v>
+        <v>368</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -4412,10 +4544,10 @@
         <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>139</v>
@@ -4433,7 +4565,7 @@
         <v>3</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O27" s="16" t="s">
         <v>16</v>
@@ -4454,21 +4586,24 @@
         <v>162</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>172</v>
+        <v>369</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="W27" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X27" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="238" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="238" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
@@ -4483,10 +4618,10 @@
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I28" s="18" t="s">
         <v>135</v>
@@ -4504,7 +4639,7 @@
         <v>3</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O28" s="16" t="s">
         <v>17</v>
@@ -4525,21 +4660,24 @@
         <v>2013</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>173</v>
+        <v>373</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>328</v>
+        <v>170</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>1</v>
@@ -4554,10 +4692,10 @@
         <v>24</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I29" s="18" t="s">
         <v>135</v>
@@ -4575,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O29" s="16" t="s">
         <v>16</v>
@@ -4601,16 +4739,19 @@
       <c r="V29" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="W29" s="5" t="s">
+      <c r="W29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X29" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>50</v>
@@ -4625,10 +4766,10 @@
         <v>43</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I30" s="18" t="s">
         <v>135</v>
@@ -4646,7 +4787,7 @@
         <v>3</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O30" s="16" t="s">
         <v>17</v>
@@ -4672,34 +4813,37 @@
       <c r="V30" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="W30" s="5" t="s">
+      <c r="W30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X30" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="255" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I31" s="18" t="s">
         <v>135</v>
@@ -4717,7 +4861,7 @@
         <v>3</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O31" s="16" t="s">
         <v>17</v>
@@ -4732,45 +4876,48 @@
         <v>167</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="T31" s="8">
         <v>2017</v>
       </c>
       <c r="U31" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="255" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="255" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="I32" s="18" t="s">
         <v>135</v>
@@ -4788,7 +4935,7 @@
         <v>3</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O32" s="16" t="s">
         <v>17</v>
@@ -4803,27 +4950,30 @@
         <v>167</v>
       </c>
       <c r="S32" s="12" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="T32" s="8">
         <v>2017</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>354</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="187" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="187" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>63</v>
@@ -4838,10 +4988,10 @@
         <v>66</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I33" s="18" t="s">
         <v>135</v>
@@ -4859,7 +5009,7 @@
         <v>3</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O33" s="16" t="s">
         <v>17</v>
@@ -4874,27 +5024,30 @@
         <v>160</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="T33" s="8">
         <v>2013</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="V33" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>329</v>
+        <v>277</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="W33" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" ht="170" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>63</v>
@@ -4909,10 +5062,10 @@
         <v>66</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I34" s="18" t="s">
         <v>135</v>
@@ -4930,7 +5083,7 @@
         <v>3</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O34" s="16" t="s">
         <v>17</v>
@@ -4945,7 +5098,7 @@
         <v>167</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="T34" s="8">
         <v>2012</v>
@@ -4953,19 +5106,22 @@
       <c r="U34" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="V34" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="W34" s="1" t="s">
+      <c r="V34" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="W34" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="X34" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>145</v>
@@ -4980,10 +5136,10 @@
         <v>138</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I35" s="23" t="s">
         <v>139</v>
@@ -5001,7 +5157,7 @@
         <v>3</v>
       </c>
       <c r="N35" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O35" s="16" t="s">
         <v>16</v>
@@ -5019,24 +5175,27 @@
         <v>164</v>
       </c>
       <c r="T35" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V35" s="5" t="s">
-        <v>163</v>
+        <v>282</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="W35" s="5" t="s">
         <v>163</v>
       </c>
+      <c r="X35" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="36" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>143</v>
@@ -5051,10 +5210,10 @@
         <v>138</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I36" s="23" t="s">
         <v>139</v>
@@ -5072,7 +5231,7 @@
         <v>3</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O36" s="16" t="s">
         <v>16</v>
@@ -5090,24 +5249,27 @@
         <v>164</v>
       </c>
       <c r="T36" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V36" s="5" t="s">
-        <v>163</v>
+        <v>282</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="W36" s="5" t="s">
         <v>163</v>
       </c>
+      <c r="X36" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="37" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>143</v>
@@ -5122,10 +5284,10 @@
         <v>138</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I37" s="18" t="s">
         <v>135</v>
@@ -5143,7 +5305,7 @@
         <v>3</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O37" s="16" t="s">
         <v>16</v>
@@ -5161,24 +5323,27 @@
         <v>164</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V37" s="5" t="s">
-        <v>163</v>
+        <v>282</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="W37" s="5" t="s">
         <v>163</v>
       </c>
+      <c r="X37" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="38" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>145</v>
@@ -5193,10 +5358,10 @@
         <v>138</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I38" s="18" t="s">
         <v>135</v>
@@ -5214,7 +5379,7 @@
         <v>3</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O38" s="16" t="s">
         <v>16</v>
@@ -5232,24 +5397,27 @@
         <v>164</v>
       </c>
       <c r="T38" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V38" s="5" t="s">
-        <v>163</v>
+        <v>282</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="W38" s="5" t="s">
         <v>163</v>
       </c>
+      <c r="X38" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="39" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>141</v>
@@ -5264,10 +5432,10 @@
         <v>138</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>135</v>
@@ -5285,7 +5453,7 @@
         <v>3</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O39" s="15" t="s">
         <v>16</v>
@@ -5303,24 +5471,27 @@
         <v>164</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V39" s="5" t="s">
-        <v>163</v>
+        <v>282</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="W39" s="5" t="s">
         <v>163</v>
       </c>
+      <c r="X39" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="40" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>143</v>
@@ -5335,10 +5506,10 @@
         <v>138</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I40" s="18" t="s">
         <v>135</v>
@@ -5356,7 +5527,7 @@
         <v>3</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O40" s="15" t="s">
         <v>16</v>
@@ -5374,24 +5545,27 @@
         <v>164</v>
       </c>
       <c r="T40" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V40" s="5" t="s">
-        <v>163</v>
+        <v>282</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="W40" s="5" t="s">
         <v>163</v>
       </c>
+      <c r="X40" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="41" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>147</v>
@@ -5406,10 +5580,10 @@
         <v>138</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I41" s="18" t="s">
         <v>135</v>
@@ -5427,7 +5601,7 @@
         <v>3</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O41" s="15" t="s">
         <v>16</v>
@@ -5445,24 +5619,27 @@
         <v>164</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V41" s="5" t="s">
-        <v>163</v>
+        <v>282</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="W41" s="5" t="s">
         <v>163</v>
       </c>
+      <c r="X41" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="42" spans="1:23" s="11" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" s="11" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>71</v>
@@ -5477,16 +5654,16 @@
         <v>74</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K42" s="16" t="s">
         <v>15</v>
@@ -5498,7 +5675,7 @@
         <v>3</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O42" s="16" t="s">
         <v>17</v>
@@ -5524,16 +5701,19 @@
       <c r="V42" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="W42" s="1" t="s">
+      <c r="W42" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="X42" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:23" s="11" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" s="11" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>71</v>
@@ -5548,16 +5728,16 @@
         <v>74</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K43" s="16" t="s">
         <v>15</v>
@@ -5569,7 +5749,7 @@
         <v>3</v>
       </c>
       <c r="N43" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O43" s="16" t="s">
         <v>17</v>
@@ -5595,16 +5775,19 @@
       <c r="V43" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="W43" s="1" t="s">
+      <c r="W43" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="X43" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:23" s="11" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" s="11" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>71</v>
@@ -5619,16 +5802,16 @@
         <v>74</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="I44" s="18" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K44" s="16" t="s">
         <v>15</v>
@@ -5640,7 +5823,7 @@
         <v>3</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O44" s="16" t="s">
         <v>17</v>
@@ -5666,16 +5849,19 @@
       <c r="V44" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="W44" s="1" t="s">
+      <c r="W44" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="X44" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="255" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>127</v>
@@ -5684,16 +5870,16 @@
         <v>128</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I45" s="15" t="s">
         <v>123</v>
@@ -5711,7 +5897,7 @@
         <v>3</v>
       </c>
       <c r="N45" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O45" s="15" t="s">
         <v>17</v>
@@ -5726,19 +5912,22 @@
         <v>160</v>
       </c>
       <c r="S45" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="T45" s="8">
         <v>2014</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="V45" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="W45" s="1" t="s">
-        <v>330</v>
+        <v>277</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="W45" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/measures/IRAP procedural parameters, stimuli, and publication status.xlsx
+++ b/measures/IRAP procedural parameters, stimuli, and publication status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/git/irap-reliability-meta-analysis/measures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01772B18-4A49-3747-9D23-8A086B84BFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15BD891-A684-9D4A-B527-E7BE8244F532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="740" windowWidth="28000" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="740" windowWidth="33500" windowHeight="20860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -505,9 +505,6 @@
     <t>Block order</t>
   </si>
   <si>
-    <t>Sample</t>
-  </si>
-  <si>
     <t>Year of data collection</t>
   </si>
   <si>
@@ -1782,6 +1779,9 @@
   </si>
   <si>
     <t>Finn, Barnes-Holmes, Hussey, &amp; Graddy (2016)</t>
+  </si>
+  <si>
+    <t>Sampling strategy and location</t>
   </si>
 </sst>
 </file>
@@ -2571,8 +2571,8 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V1" sqref="V1"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2602,10 +2602,10 @@
   <sheetData>
     <row r="1" spans="1:24" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>18</v>
@@ -2614,16 +2614,16 @@
         <v>19</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>52</v>
@@ -2641,7 +2641,7 @@
         <v>134</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>20</v>
@@ -2656,19 +2656,19 @@
         <v>155</v>
       </c>
       <c r="S1" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="T1" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="U1" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>37</v>
@@ -2679,7 +2679,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -2694,16 +2694,16 @@
         <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>330</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>331</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>15</v>
@@ -2715,7 +2715,7 @@
         <v>3</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O2" s="16" t="s">
         <v>16</v>
@@ -2727,25 +2727,25 @@
         <v>2000</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S2" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="T2" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="U2" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -2753,7 +2753,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>46</v>
@@ -2768,10 +2768,10 @@
         <v>39</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>135</v>
@@ -2789,7 +2789,7 @@
         <v>3</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>17</v>
@@ -2801,25 +2801,25 @@
         <v>2000</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>161</v>
       </c>
       <c r="T3" s="8">
         <v>2016</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -2827,7 +2827,7 @@
         <v>97</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>60</v>
@@ -2836,16 +2836,16 @@
         <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>135</v>
@@ -2863,7 +2863,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O4" s="15" t="s">
         <v>17</v>
@@ -2875,25 +2875,25 @@
         <v>2000</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -2901,7 +2901,7 @@
         <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>61</v>
@@ -2910,16 +2910,16 @@
         <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="G5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>135</v>
@@ -2937,7 +2937,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O5" s="15" t="s">
         <v>17</v>
@@ -2949,25 +2949,25 @@
         <v>2000</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -2975,7 +2975,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>54</v>
@@ -2984,16 +2984,16 @@
         <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>135</v>
@@ -3011,7 +3011,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>17</v>
@@ -3023,25 +3023,25 @@
         <v>2000</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="119" x14ac:dyDescent="0.2">
@@ -3049,7 +3049,7 @@
         <v>100</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>57</v>
@@ -3058,16 +3058,16 @@
         <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="G7" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>135</v>
@@ -3085,7 +3085,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O7" s="15" t="s">
         <v>17</v>
@@ -3097,25 +3097,25 @@
         <v>2000</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -3123,7 +3123,7 @@
         <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -3138,10 +3138,10 @@
         <v>29</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>135</v>
@@ -3159,7 +3159,7 @@
         <v>3</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>17</v>
@@ -3171,25 +3171,25 @@
         <v>2000</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T8" s="8">
         <v>2013</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -3197,7 +3197,7 @@
         <v>102</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
@@ -3212,10 +3212,10 @@
         <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>135</v>
@@ -3233,7 +3233,7 @@
         <v>3</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>17</v>
@@ -3245,25 +3245,25 @@
         <v>2000</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T9" s="8">
         <v>2013</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -3271,7 +3271,7 @@
         <v>103</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -3286,10 +3286,10 @@
         <v>32</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>135</v>
@@ -3307,7 +3307,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O10" s="16" t="s">
         <v>17</v>
@@ -3319,25 +3319,25 @@
         <v>2000</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T10" s="8">
         <v>2013</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -3345,31 +3345,31 @@
         <v>152</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="I11" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J11" s="18" t="s">
         <v>177</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>178</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>56</v>
@@ -3381,7 +3381,7 @@
         <v>3</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O11" s="16" t="s">
         <v>17</v>
@@ -3393,25 +3393,25 @@
         <v>2000</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T11" s="8">
         <v>2013</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="187" x14ac:dyDescent="0.2">
@@ -3419,7 +3419,7 @@
         <v>132</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>149</v>
@@ -3428,16 +3428,16 @@
         <v>150</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="G12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>135</v>
@@ -3455,7 +3455,7 @@
         <v>3</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O12" s="16" t="s">
         <v>17</v>
@@ -3467,25 +3467,25 @@
         <v>2500</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T12" s="8">
         <v>2014</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="272" x14ac:dyDescent="0.2">
@@ -3493,7 +3493,7 @@
         <v>131</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>67</v>
@@ -3502,10 +3502,10 @@
         <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>126</v>
@@ -3529,7 +3529,7 @@
         <v>3</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O13" s="16" t="s">
         <v>17</v>
@@ -3541,25 +3541,25 @@
         <v>2000</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T13" s="8">
         <v>2013</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -3567,7 +3567,7 @@
         <v>117</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -3576,16 +3576,16 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="G14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>135</v>
@@ -3603,7 +3603,7 @@
         <v>3</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O14" s="16" t="s">
         <v>16</v>
@@ -3615,33 +3615,33 @@
         <v>2000</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T14" s="8">
         <v>2013</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="W14" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>69</v>
@@ -3650,16 +3650,16 @@
         <v>70</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>135</v>
@@ -3677,7 +3677,7 @@
         <v>3</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O15" s="16" t="s">
         <v>16</v>
@@ -3689,33 +3689,33 @@
         <v>2000</v>
       </c>
       <c r="R15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S15" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="S15" s="12" t="s">
+      <c r="T15" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="T15" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="U15" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>48</v>
@@ -3730,10 +3730,10 @@
         <v>41</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>135</v>
@@ -3751,7 +3751,7 @@
         <v>3</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O16" s="16" t="s">
         <v>16</v>
@@ -3763,51 +3763,51 @@
         <v>2000</v>
       </c>
       <c r="R16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S16" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>161</v>
       </c>
       <c r="T16" s="8">
         <v>2016</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="136" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>135</v>
@@ -3825,7 +3825,7 @@
         <v>3</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O17" s="21" t="s">
         <v>17</v>
@@ -3837,51 +3837,51 @@
         <v>2000</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="153" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>135</v>
@@ -3899,7 +3899,7 @@
         <v>3</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O18" s="16" t="s">
         <v>17</v>
@@ -3911,25 +3911,25 @@
         <v>2000</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T18" s="8">
         <v>2015</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -3937,7 +3937,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -3946,16 +3946,16 @@
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="G19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>135</v>
@@ -3973,7 +3973,7 @@
         <v>3</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O19" s="16" t="s">
         <v>16</v>
@@ -3985,25 +3985,25 @@
         <v>2000</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T19" s="8">
         <v>2013</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="V19" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -4011,25 +4011,25 @@
         <v>153</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="G20" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>135</v>
@@ -4047,7 +4047,7 @@
         <v>3</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O20" s="16" t="s">
         <v>17</v>
@@ -4059,25 +4059,25 @@
         <v>2000</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T20" s="8">
         <v>2014</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -4085,7 +4085,7 @@
         <v>104</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>75</v>
@@ -4100,10 +4100,10 @@
         <v>78</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>135</v>
@@ -4121,7 +4121,7 @@
         <v>3</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O21" s="15" t="s">
         <v>16</v>
@@ -4133,25 +4133,25 @@
         <v>2500</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T21" s="8">
         <v>2014</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -4159,7 +4159,7 @@
         <v>105</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>81</v>
@@ -4174,10 +4174,10 @@
         <v>80</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="I22" s="18" t="s">
         <v>135</v>
@@ -4195,7 +4195,7 @@
         <v>3</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O22" s="15" t="s">
         <v>16</v>
@@ -4207,25 +4207,25 @@
         <v>2500</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T22" s="8">
         <v>2014</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -4233,7 +4233,7 @@
         <v>106</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>83</v>
@@ -4248,10 +4248,10 @@
         <v>86</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="I23" s="18" t="s">
         <v>135</v>
@@ -4269,7 +4269,7 @@
         <v>3</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O23" s="15" t="s">
         <v>16</v>
@@ -4281,25 +4281,25 @@
         <v>2500</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T23" s="8">
         <v>2014</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -4307,7 +4307,7 @@
         <v>107</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>93</v>
@@ -4322,10 +4322,10 @@
         <v>88</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>135</v>
@@ -4343,7 +4343,7 @@
         <v>3</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O24" s="15" t="s">
         <v>16</v>
@@ -4355,25 +4355,25 @@
         <v>2500</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T24" s="8">
         <v>2014</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -4381,7 +4381,7 @@
         <v>108</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>91</v>
@@ -4396,10 +4396,10 @@
         <v>90</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="I25" s="18" t="s">
         <v>135</v>
@@ -4417,7 +4417,7 @@
         <v>3</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O25" s="15" t="s">
         <v>16</v>
@@ -4429,51 +4429,51 @@
         <v>2500</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T25" s="8">
         <v>2014</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:24" s="11" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>135</v>
@@ -4491,7 +4491,7 @@
         <v>3</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O26" s="16" t="s">
         <v>16</v>
@@ -4503,25 +4503,25 @@
         <v>2500</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="T26" s="8">
         <v>2017</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -4529,7 +4529,7 @@
         <v>109</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -4544,10 +4544,10 @@
         <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>139</v>
@@ -4565,7 +4565,7 @@
         <v>3</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O27" s="16" t="s">
         <v>16</v>
@@ -4577,25 +4577,25 @@
         <v>2000</v>
       </c>
       <c r="R27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S27" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="S27" s="12" t="s">
+      <c r="T27" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="T27" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="U27" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="238" x14ac:dyDescent="0.2">
@@ -4603,7 +4603,7 @@
         <v>110</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
@@ -4618,10 +4618,10 @@
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="I28" s="18" t="s">
         <v>135</v>
@@ -4639,7 +4639,7 @@
         <v>3</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O28" s="16" t="s">
         <v>17</v>
@@ -4651,25 +4651,25 @@
         <v>2000</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T28" s="8">
         <v>2013</v>
       </c>
       <c r="U28" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="X28" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>1</v>
@@ -4692,10 +4692,10 @@
         <v>24</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="I29" s="18" t="s">
         <v>135</v>
@@ -4713,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O29" s="16" t="s">
         <v>16</v>
@@ -4725,25 +4725,25 @@
         <v>2000</v>
       </c>
       <c r="R29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S29" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="S29" s="12" t="s">
+      <c r="T29" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="T29" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="U29" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X29" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -4751,7 +4751,7 @@
         <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>50</v>
@@ -4766,10 +4766,10 @@
         <v>43</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="I30" s="18" t="s">
         <v>135</v>
@@ -4787,7 +4787,7 @@
         <v>3</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O30" s="16" t="s">
         <v>17</v>
@@ -4799,51 +4799,51 @@
         <v>2000</v>
       </c>
       <c r="R30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S30" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="S30" s="12" t="s">
-        <v>161</v>
       </c>
       <c r="T30" s="8">
         <v>2016</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="C31" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="I31" s="18" t="s">
         <v>135</v>
@@ -4861,7 +4861,7 @@
         <v>3</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O31" s="16" t="s">
         <v>17</v>
@@ -4873,51 +4873,51 @@
         <v>2000</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T31" s="8">
         <v>2017</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W31" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="X31" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="E32" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I32" s="18" t="s">
         <v>135</v>
@@ -4935,7 +4935,7 @@
         <v>3</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O32" s="16" t="s">
         <v>17</v>
@@ -4947,25 +4947,25 @@
         <v>2000</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S32" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T32" s="8">
         <v>2017</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W32" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="X32" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="187" x14ac:dyDescent="0.2">
@@ -4973,7 +4973,7 @@
         <v>129</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>63</v>
@@ -4988,10 +4988,10 @@
         <v>66</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="I33" s="18" t="s">
         <v>135</v>
@@ -5009,7 +5009,7 @@
         <v>3</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O33" s="16" t="s">
         <v>17</v>
@@ -5021,25 +5021,25 @@
         <v>2000</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T33" s="8">
         <v>2013</v>
       </c>
       <c r="U33" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="W33" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="W33" s="11" t="s">
-        <v>278</v>
-      </c>
       <c r="X33" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="170" x14ac:dyDescent="0.2">
@@ -5047,7 +5047,7 @@
         <v>130</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>63</v>
@@ -5062,10 +5062,10 @@
         <v>66</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="I34" s="18" t="s">
         <v>135</v>
@@ -5083,7 +5083,7 @@
         <v>3</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O34" s="16" t="s">
         <v>17</v>
@@ -5095,22 +5095,22 @@
         <v>2000</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T34" s="8">
         <v>2012</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W34" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X34" s="1" t="s">
         <v>122</v>
@@ -5121,7 +5121,7 @@
         <v>111</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>145</v>
@@ -5136,10 +5136,10 @@
         <v>138</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="I35" s="23" t="s">
         <v>139</v>
@@ -5157,7 +5157,7 @@
         <v>3</v>
       </c>
       <c r="N35" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O35" s="16" t="s">
         <v>16</v>
@@ -5169,25 +5169,25 @@
         <v>2000</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T35" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X35" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -5195,7 +5195,7 @@
         <v>151</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>143</v>
@@ -5210,10 +5210,10 @@
         <v>138</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="I36" s="23" t="s">
         <v>139</v>
@@ -5231,7 +5231,7 @@
         <v>3</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O36" s="16" t="s">
         <v>16</v>
@@ -5243,25 +5243,25 @@
         <v>2000</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S36" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T36" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X36" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -5269,7 +5269,7 @@
         <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>143</v>
@@ -5284,10 +5284,10 @@
         <v>138</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="I37" s="18" t="s">
         <v>135</v>
@@ -5305,7 +5305,7 @@
         <v>3</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O37" s="16" t="s">
         <v>16</v>
@@ -5317,25 +5317,25 @@
         <v>2000</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S37" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W37" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X37" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -5343,7 +5343,7 @@
         <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>145</v>
@@ -5358,10 +5358,10 @@
         <v>138</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="I38" s="18" t="s">
         <v>135</v>
@@ -5379,7 +5379,7 @@
         <v>3</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O38" s="16" t="s">
         <v>16</v>
@@ -5391,25 +5391,25 @@
         <v>2000</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T38" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X38" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -5417,7 +5417,7 @@
         <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>141</v>
@@ -5432,10 +5432,10 @@
         <v>138</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>135</v>
@@ -5453,7 +5453,7 @@
         <v>3</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O39" s="15" t="s">
         <v>16</v>
@@ -5465,25 +5465,25 @@
         <v>2000</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S39" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X39" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -5491,7 +5491,7 @@
         <v>115</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>143</v>
@@ -5506,10 +5506,10 @@
         <v>138</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="I40" s="18" t="s">
         <v>135</v>
@@ -5527,7 +5527,7 @@
         <v>3</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O40" s="15" t="s">
         <v>16</v>
@@ -5539,25 +5539,25 @@
         <v>2000</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S40" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T40" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X40" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="102" x14ac:dyDescent="0.2">
@@ -5565,7 +5565,7 @@
         <v>116</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>147</v>
@@ -5580,10 +5580,10 @@
         <v>138</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="I41" s="18" t="s">
         <v>135</v>
@@ -5601,7 +5601,7 @@
         <v>3</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O41" s="15" t="s">
         <v>16</v>
@@ -5613,25 +5613,25 @@
         <v>2000</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S41" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X41" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:24" s="11" customFormat="1" ht="136" x14ac:dyDescent="0.2">
@@ -5639,7 +5639,7 @@
         <v>118</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>71</v>
@@ -5654,16 +5654,16 @@
         <v>74</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="I42" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="J42" s="18" t="s">
         <v>335</v>
-      </c>
-      <c r="J42" s="18" t="s">
-        <v>336</v>
       </c>
       <c r="K42" s="16" t="s">
         <v>15</v>
@@ -5675,7 +5675,7 @@
         <v>3</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O42" s="16" t="s">
         <v>17</v>
@@ -5687,22 +5687,22 @@
         <v>2000</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S42" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T42" s="8">
         <v>2015</v>
       </c>
       <c r="U42" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V42" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W42" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X42" s="1" t="s">
         <v>121</v>
@@ -5713,7 +5713,7 @@
         <v>119</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>71</v>
@@ -5728,16 +5728,16 @@
         <v>74</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K43" s="16" t="s">
         <v>15</v>
@@ -5749,7 +5749,7 @@
         <v>3</v>
       </c>
       <c r="N43" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O43" s="16" t="s">
         <v>17</v>
@@ -5761,22 +5761,22 @@
         <v>2000</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S43" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T43" s="8">
         <v>2015</v>
       </c>
       <c r="U43" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V43" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W43" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X43" s="1" t="s">
         <v>121</v>
@@ -5787,7 +5787,7 @@
         <v>120</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>71</v>
@@ -5802,16 +5802,16 @@
         <v>74</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I44" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="J44" s="18" t="s">
         <v>335</v>
-      </c>
-      <c r="J44" s="18" t="s">
-        <v>336</v>
       </c>
       <c r="K44" s="16" t="s">
         <v>15</v>
@@ -5823,7 +5823,7 @@
         <v>3</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O44" s="16" t="s">
         <v>17</v>
@@ -5835,22 +5835,22 @@
         <v>2000</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S44" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T44" s="8">
         <v>2015</v>
       </c>
       <c r="U44" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V44" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W44" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X44" s="1" t="s">
         <v>121</v>
@@ -5861,7 +5861,7 @@
         <v>95</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>127</v>
@@ -5870,16 +5870,16 @@
         <v>128</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I45" s="15" t="s">
         <v>123</v>
@@ -5897,7 +5897,7 @@
         <v>3</v>
       </c>
       <c r="N45" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O45" s="15" t="s">
         <v>17</v>
@@ -5909,25 +5909,25 @@
         <v>2000</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S45" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T45" s="8">
         <v>2014</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="W45" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
